--- a/fuentes/contenidos/grado06/guion07/Escaleta_MA_06_07_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion07/Escaleta_MA_06_07_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="282">
   <si>
     <t>Asignatura</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Descripción</t>
-  </si>
-  <si>
-    <t>Mapa conceptual</t>
   </si>
   <si>
     <t>Tipo de media</t>
@@ -429,9 +426,6 @@
   </si>
   <si>
     <t>Ejercitación y competencias</t>
-  </si>
-  <si>
-    <t>Fin de la unidad</t>
   </si>
   <si>
     <t>Si</t>
@@ -1282,7 +1276,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1369,9 +1363,6 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1390,6 +1381,60 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1398,60 +1443,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1766,2190 +1757,2184 @@
   <dimension ref="A1:U180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="9"/>
     <col min="2" max="2" width="22" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14" style="9"/>
-    <col min="4" max="4" width="21.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" style="24" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="25" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="25" customWidth="1"/>
     <col min="7" max="7" width="61.140625" style="10" customWidth="1"/>
     <col min="8" max="9" width="14" style="10"/>
     <col min="10" max="10" width="61.85546875" style="9" customWidth="1"/>
     <col min="11" max="14" width="14" style="9"/>
-    <col min="15" max="15" width="12.5703125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="39.42578125" style="9" customWidth="1"/>
     <col min="16" max="16" width="16" style="10" customWidth="1"/>
     <col min="17" max="19" width="14" style="10"/>
-    <col min="20" max="20" width="37" style="35" customWidth="1"/>
+    <col min="20" max="20" width="37" style="34" customWidth="1"/>
     <col min="21" max="21" width="14" style="10"/>
     <col min="22" max="16384" width="14" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="G1" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="G1" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="L1" s="42" t="s">
+      <c r="K1" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="36" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="P1" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="S1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="T1" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="U1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="37" t="s">
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="54"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>118</v>
-      </c>
       <c r="F3" s="26"/>
-      <c r="G3" s="31" t="s">
-        <v>256</v>
+      <c r="G3" s="30" t="s">
+        <v>254</v>
       </c>
       <c r="H3" s="28">
         <v>1</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q3" s="16">
         <v>6</v>
       </c>
       <c r="R3" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="T3" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="U3" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E4" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>255</v>
+        <v>140</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>253</v>
       </c>
       <c r="H4" s="29">
         <v>2</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="18">
         <v>6</v>
       </c>
       <c r="R4" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T4" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="U4" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="T4" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E5" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="H5" s="30">
+      <c r="G5" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="28">
         <v>3</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="18">
         <v>6</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S5" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T5" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="U5" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="T5" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="U5" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E6" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="H6" s="30">
+        <v>119</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" s="29">
         <v>4</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="S6" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R6" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="S6" s="18" t="s">
+      <c r="T6" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="U6" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="T6" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="U6" s="18" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="28">
+        <v>5</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="30">
-        <v>5</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="R7" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="P7" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q7" s="18" t="s">
+      <c r="S7" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="T7" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="S7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="T7" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" s="30">
+      <c r="G8" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="29">
         <v>6</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="S8" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R8" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="S8" s="18" t="s">
+      <c r="T8" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="U8" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="T8" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="U8" s="18" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E9" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" s="27"/>
-      <c r="G9" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="H9" s="30">
+      <c r="G9" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" s="28">
         <v>7</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q9" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="S9" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R9" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="S9" s="18" t="s">
+      <c r="T9" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="U9" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="T9" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="U9" s="18" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="29">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="30">
-        <v>8</v>
-      </c>
       <c r="I10" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="18">
         <v>6</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S10" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T10" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="U10" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="T10" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="U10" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E11" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="27"/>
-      <c r="G11" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="H11" s="30">
+      <c r="G11" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="H11" s="28">
         <v>9</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="S11" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R11" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="S11" s="18" t="s">
+      <c r="T11" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="U11" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="T11" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="U11" s="18" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" s="30">
+      <c r="G12" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="29">
         <v>10</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q12" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="S12" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R12" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="S12" s="18" t="s">
+      <c r="T12" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="U12" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="T12" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="U12" s="18" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D13" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>126</v>
-      </c>
       <c r="F13" s="27"/>
-      <c r="G13" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="H13" s="30">
+      <c r="G13" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="H13" s="28">
         <v>11</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="18">
         <v>6</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S13" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T13" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="U13" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="T13" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="U13" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="H14" s="30">
+      <c r="G14" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="H14" s="29">
         <v>12</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="S14" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R14" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="S14" s="18" t="s">
+      <c r="T14" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="U14" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="T14" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="U14" s="18" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="H15" s="30">
+        <v>127</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="28">
         <v>13</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q15" s="18">
         <v>6</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S15" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T15" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="U15" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="T15" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="U15" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="H16" s="30">
+        <v>128</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="29">
         <v>14</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q16" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="S16" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R16" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="S16" s="18" t="s">
+      <c r="T16" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="U16" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="T16" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="U16" s="18" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F17" s="27"/>
-      <c r="G17" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="H17" s="30">
+      <c r="G17" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="28">
         <v>15</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="S17" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R17" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="S17" s="18" t="s">
+      <c r="T17" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="U17" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="T17" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="U17" s="18" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="H18" s="30">
+      <c r="G18" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="H18" s="29">
         <v>16</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q18" s="18">
         <v>6</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="S18" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="T18" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="U18" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="T18" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="U18" s="18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F19" s="27"/>
-      <c r="G19" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="H19" s="30">
+      <c r="G19" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="28">
         <v>17</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="18">
         <v>6</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S19" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T19" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="U19" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="T19" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="U19" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F20" s="27"/>
-      <c r="G20" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="H20" s="30">
+      <c r="G20" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="29">
         <v>18</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P20" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="18">
         <v>6</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S20" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T20" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="U20" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="T20" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="U20" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="H21" s="30">
+      <c r="G21" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="28">
         <v>19</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P21" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q21" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="S21" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R21" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="S21" s="18" t="s">
+      <c r="T21" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="U21" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="T21" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="U21" s="18" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="27"/>
-      <c r="G22" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="H22" s="30">
+      <c r="G22" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="H22" s="29">
         <v>20</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P22" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="18">
         <v>6</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S22" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T22" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="U22" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="T22" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="U22" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23" s="27"/>
-      <c r="G23" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="H23" s="30">
+      <c r="G23" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="H23" s="28">
         <v>21</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P23" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="18">
         <v>6</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S23" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T23" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="U23" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="T23" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="U23" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="H24" s="30">
+      <c r="G24" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="H24" s="29">
         <v>22</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P24" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q24" s="18">
         <v>6</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="S24" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="T24" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="U24" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="T24" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="U24" s="18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="H25" s="30">
+      <c r="G25" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="H25" s="28">
         <v>23</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P25" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q25" s="18">
         <v>6</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S25" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T25" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="U25" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="T25" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="U25" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F26" s="27"/>
-      <c r="G26" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="H26" s="30">
+      <c r="G26" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="H26" s="29">
         <v>24</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P26" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q26" s="18">
         <v>6</v>
       </c>
       <c r="R26" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S26" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T26" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="U26" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="T26" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="U26" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="H27" s="30">
+      <c r="G27" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" s="28">
         <v>25</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P27" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q27" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="R27" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="S27" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R27" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="S27" s="18" t="s">
+      <c r="T27" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="U27" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="T27" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="U27" s="18" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="27"/>
-      <c r="G28" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="H28" s="30">
+      <c r="G28" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="H28" s="29">
         <v>26</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P28" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q28" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="R28" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="S28" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R28" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="S28" s="18" t="s">
+      <c r="T28" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="U28" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="T28" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="U28" s="18" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29" s="27"/>
-      <c r="G29" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="H29" s="30">
+      <c r="G29" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="H29" s="28">
         <v>27</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P29" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q29" s="18">
         <v>6</v>
       </c>
       <c r="R29" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S29" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T29" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="U29" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="T29" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="U29" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="H30" s="30">
+      <c r="G30" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="H30" s="29">
         <v>28</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P30" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q30" s="18">
         <v>6</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="S30" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="T30" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="U30" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="T30" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="U30" s="18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="H31" s="30">
+      <c r="G31" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="H31" s="28">
         <v>29</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P31" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q31" s="18">
         <v>6</v>
       </c>
       <c r="R31" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S31" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T31" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="U31" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="T31" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="U31" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F32" s="27"/>
-      <c r="G32" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="H32" s="30">
+      <c r="G32" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="H32" s="29">
         <v>30</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P32" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q32" s="18">
         <v>6</v>
       </c>
       <c r="R32" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S32" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T32" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="U32" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="T32" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="U32" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>135</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E33" s="20"/>
       <c r="F33" s="27"/>
-      <c r="G33" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="H33" s="30">
+      <c r="G33" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="H33" s="28">
         <v>31</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P33" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q33" s="18">
         <v>6</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S33" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T33" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="U33" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="T33" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="U33" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="20" t="s">
-        <v>135</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="20"/>
       <c r="F34" s="27"/>
-      <c r="G34" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="H34" s="30">
+      <c r="G34" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="H34" s="29">
         <v>32</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P34" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q34" s="18">
         <v>6</v>
       </c>
       <c r="R34" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S34" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T34" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="U34" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="T34" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="U34" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D35" s="23"/>
-      <c r="E35" s="20" t="s">
-        <v>5</v>
-      </c>
+      <c r="E35" s="20"/>
       <c r="F35" s="27"/>
-      <c r="G35" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="H35" s="30">
+      <c r="G35" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="H35" s="28">
         <v>33</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P35" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q35" s="18"/>
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
-      <c r="T35" s="34"/>
+      <c r="T35" s="33"/>
       <c r="U35" s="18"/>
     </row>
     <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D36" s="23"/>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="20"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="H36" s="29">
+        <v>34</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="H36" s="30">
-        <v>34</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>271</v>
-      </c>
       <c r="K36" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P36" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q36" s="18">
         <v>6</v>
       </c>
       <c r="R36" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S36" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T36" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="U36" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="T36" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="U36" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D37" s="23"/>
-      <c r="E37" s="20" t="s">
-        <v>232</v>
-      </c>
+      <c r="E37" s="20"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="30">
+      <c r="G37" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="H37" s="28">
         <v>35</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J37" s="21"/>
       <c r="K37" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P37" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q37" s="18">
         <v>6</v>
       </c>
       <c r="R37" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S37" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T37" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="U37" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="T37" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="U37" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3957,768 +3942,771 @@
     </row>
     <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="E78" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E78" s="25" t="s">
+      <c r="J78" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J78" s="9" t="s">
+      <c r="L78" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="L78" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G170" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G171" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G172" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G173" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G174" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G175" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G176" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="177" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G177" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="178" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G178" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="179" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G179" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="180" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G180" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U37">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -4733,12 +4721,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A37">

--- a/fuentes/contenidos/grado06/guion07/Escaleta_MA_06_07_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion07/Escaleta_MA_06_07_CO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1575" windowWidth="20730" windowHeight="11700"/>
+    <workbookView xWindow="1920" yWindow="1580" windowWidth="23420" windowHeight="13960"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$37</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterateCount="2" iterateDelta="10"/>
+  <calcPr calcId="140001" iterateCount="2" iterateDelta="10" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -620,9 +620,6 @@
     <t>El recurso no tiene modificaciones.</t>
   </si>
   <si>
-    <t>Explicar la comparación de decimales utilizando la recta numérica, proponer la comparación de fracciones con decimales y decimales con decimales. Plantear los ejercicios de práctica.</t>
-  </si>
-  <si>
     <t>Recurso F6B-01</t>
   </si>
   <si>
@@ -744,12 +741,6 @@
   </si>
   <si>
     <t>Actividad para practicar el truncamiento de números decimales</t>
-  </si>
-  <si>
-    <t>Comparación de números decimales</t>
-  </si>
-  <si>
-    <t>Interactivo que explica la comparación de fracciones utilizando la recta numérica</t>
   </si>
   <si>
     <t>En la imagen presentar la recta numérica ubicando un punto y en las respuestas el decimal localizado.</t>
@@ -970,14 +961,42 @@
       <t>os porcentajes en la solución de problemas</t>
     </r>
   </si>
+  <si>
+    <t>Representación de números decimales en la recta</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interactivo que explica </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>el uso de la recta numérica en los decimales</t>
+    </r>
+  </si>
+  <si>
+    <t>Explicar cómo se ubican decimales en la recta, tener en cuenta una cifra decimal, dos cifras decimales y tres cifras decimales. Generalizar la forma de ubicar cualquier decimal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1269,180 +1288,189 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1756,23 +1784,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" style="9"/>
     <col min="2" max="2" width="22" style="9" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="61.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="56.6640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="25" customWidth="1"/>
+    <col min="7" max="7" width="61.1640625" style="10" customWidth="1"/>
     <col min="8" max="9" width="14" style="10"/>
-    <col min="10" max="10" width="61.85546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="61.83203125" style="9" customWidth="1"/>
     <col min="11" max="14" width="14" style="9"/>
-    <col min="15" max="15" width="39.42578125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="39.5" style="9" customWidth="1"/>
     <col min="16" max="16" width="16" style="10" customWidth="1"/>
     <col min="17" max="19" width="14" style="10"/>
     <col min="20" max="20" width="37" style="34" customWidth="1"/>
@@ -1780,82 +1808,82 @@
     <col min="22" max="16384" width="14" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:21" ht="15" customHeight="1">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="I1" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="F1" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="L1" s="38" t="s">
+      <c r="K1" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="L1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="42"/>
+      <c r="N1" s="45"/>
       <c r="O1" s="35" t="s">
         <v>111</v>
       </c>
       <c r="P1" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="38"/>
+    <row r="2" spans="1:21" ht="15" customHeight="1">
+      <c r="A2" s="40"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="41"/>
       <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
@@ -1864,13 +1892,13 @@
       </c>
       <c r="O2" s="35"/>
       <c r="P2" s="35"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="54"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="36"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="36"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1888,7 +1916,7 @@
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="30" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H3" s="28">
         <v>1</v>
@@ -1897,7 +1925,7 @@
         <v>134</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>114</v>
@@ -1931,7 +1959,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1951,7 +1979,7 @@
         <v>140</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H4" s="29">
         <v>2</v>
@@ -1973,7 +2001,7 @@
         <v>47</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P4" s="22" t="s">
         <v>134</v>
@@ -1994,7 +2022,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2014,7 +2042,7 @@
         <v>119</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H5" s="28">
         <v>3</v>
@@ -2036,7 +2064,7 @@
         <v>21</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P5" s="22" t="s">
         <v>134</v>
@@ -2057,7 +2085,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2071,7 +2099,7 @@
         <v>116</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>119</v>
@@ -2118,7 +2146,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2145,7 +2173,7 @@
         <v>134</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>134</v>
@@ -2177,7 +2205,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2202,7 +2230,7 @@
         <v>114</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>134</v>
@@ -2234,7 +2262,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2252,7 +2280,7 @@
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="31" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H9" s="28">
         <v>7</v>
@@ -2293,7 +2321,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2320,7 +2348,7 @@
         <v>114</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>114</v>
@@ -2333,7 +2361,7 @@
         <v>42</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P10" s="22" t="s">
         <v>134</v>
@@ -2354,7 +2382,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -2372,7 +2400,7 @@
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H11" s="28">
         <v>9</v>
@@ -2392,7 +2420,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P11" s="22" t="s">
         <v>134</v>
@@ -2413,7 +2441,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -2449,7 +2477,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P12" s="22" t="s">
         <v>134</v>
@@ -2470,7 +2498,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -2488,7 +2516,7 @@
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="31" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H13" s="28">
         <v>11</v>
@@ -2497,7 +2525,7 @@
         <v>114</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>114</v>
@@ -2531,7 +2559,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2551,7 +2579,7 @@
         <v>127</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H14" s="29">
         <v>12</v>
@@ -2560,7 +2588,7 @@
         <v>114</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>113</v>
@@ -2571,7 +2599,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P14" s="22" t="s">
         <v>114</v>
@@ -2592,7 +2620,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2653,7 +2681,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -2712,7 +2740,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -2771,7 +2799,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2782,12 +2810,12 @@
         <v>151</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="27"/>
       <c r="G18" s="32" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H18" s="29">
         <v>16</v>
@@ -2796,7 +2824,7 @@
         <v>134</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>114</v>
@@ -2809,7 +2837,7 @@
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P18" s="22" t="s">
         <v>134</v>
@@ -2824,13 +2852,13 @@
         <v>137</v>
       </c>
       <c r="T18" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U18" s="18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -2841,7 +2869,7 @@
         <v>151</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>129</v>
@@ -2857,7 +2885,7 @@
         <v>114</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>114</v>
@@ -2891,7 +2919,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -2902,7 +2930,7 @@
         <v>151</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>130</v>
@@ -2952,7 +2980,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -2963,7 +2991,7 @@
         <v>151</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="27"/>
@@ -3009,7 +3037,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -3020,12 +3048,12 @@
         <v>151</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="27"/>
       <c r="G22" s="32" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H22" s="29">
         <v>20</v>
@@ -3068,7 +3096,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -3079,14 +3107,14 @@
         <v>151</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>123</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="31" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H23" s="28">
         <v>21</v>
@@ -3129,7 +3157,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -3140,12 +3168,12 @@
         <v>151</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="31" t="s">
-        <v>240</v>
+      <c r="G24" s="57" t="s">
+        <v>279</v>
       </c>
       <c r="H24" s="29">
         <v>22</v>
@@ -3153,8 +3181,8 @@
       <c r="I24" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="21" t="s">
-        <v>241</v>
+      <c r="J24" s="58" t="s">
+        <v>280</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>114</v>
@@ -3166,8 +3194,8 @@
         <v>13</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="14" t="s">
-        <v>198</v>
+      <c r="O24" s="59" t="s">
+        <v>281</v>
       </c>
       <c r="P24" s="22" t="s">
         <v>114</v>
@@ -3182,13 +3210,13 @@
         <v>137</v>
       </c>
       <c r="T24" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U24" s="18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -3199,12 +3227,12 @@
         <v>151</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="27"/>
       <c r="G25" s="31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H25" s="28">
         <v>23</v>
@@ -3213,7 +3241,7 @@
         <v>114</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>114</v>
@@ -3226,7 +3254,7 @@
         <v>52</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P25" s="22" t="s">
         <v>134</v>
@@ -3241,13 +3269,13 @@
         <v>143</v>
       </c>
       <c r="T25" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U25" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -3258,14 +3286,14 @@
         <v>151</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>123</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="31" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H26" s="29">
         <v>24</v>
@@ -3274,7 +3302,7 @@
         <v>114</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>114</v>
@@ -3287,7 +3315,7 @@
         <v>31</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P26" s="22" t="s">
         <v>134</v>
@@ -3302,13 +3330,13 @@
         <v>143</v>
       </c>
       <c r="T26" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U26" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
@@ -3324,7 +3352,7 @@
       <c r="E27" s="20"/>
       <c r="F27" s="27"/>
       <c r="G27" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H27" s="28">
         <v>25</v>
@@ -3333,7 +3361,7 @@
         <v>114</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>134</v>
@@ -3359,13 +3387,13 @@
         <v>151</v>
       </c>
       <c r="T27" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U27" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -3381,7 +3409,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="27"/>
       <c r="G28" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H28" s="29">
         <v>26</v>
@@ -3390,7 +3418,7 @@
         <v>114</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>134</v>
@@ -3416,13 +3444,13 @@
         <v>151</v>
       </c>
       <c r="T28" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U28" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -3440,7 +3468,7 @@
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="31" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H29" s="28">
         <v>27</v>
@@ -3449,7 +3477,7 @@
         <v>114</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>114</v>
@@ -3462,7 +3490,7 @@
         <v>31</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P29" s="22" t="s">
         <v>134</v>
@@ -3477,13 +3505,13 @@
         <v>143</v>
       </c>
       <c r="T29" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U29" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -3499,7 +3527,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="27"/>
       <c r="G30" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H30" s="29">
         <v>28</v>
@@ -3508,7 +3536,7 @@
         <v>134</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>114</v>
@@ -3521,7 +3549,7 @@
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P30" s="22" t="s">
         <v>134</v>
@@ -3536,13 +3564,13 @@
         <v>137</v>
       </c>
       <c r="T30" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U30" s="18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -3558,7 +3586,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="27"/>
       <c r="G31" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H31" s="28">
         <v>29</v>
@@ -3567,7 +3595,7 @@
         <v>114</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>114</v>
@@ -3580,7 +3608,7 @@
         <v>51</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P31" s="22" t="s">
         <v>134</v>
@@ -3595,13 +3623,13 @@
         <v>143</v>
       </c>
       <c r="T31" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U31" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -3619,7 +3647,7 @@
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H32" s="29">
         <v>30</v>
@@ -3628,7 +3656,7 @@
         <v>114</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>114</v>
@@ -3641,7 +3669,7 @@
         <v>31</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P32" s="22" t="s">
         <v>134</v>
@@ -3656,13 +3684,13 @@
         <v>143</v>
       </c>
       <c r="T32" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U32" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -3678,7 +3706,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="27"/>
       <c r="G33" s="32" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H33" s="28">
         <v>31</v>
@@ -3687,7 +3715,7 @@
         <v>114</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>114</v>
@@ -3700,7 +3728,7 @@
         <v>33</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P33" s="22" t="s">
         <v>134</v>
@@ -3715,13 +3743,13 @@
         <v>143</v>
       </c>
       <c r="T33" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U33" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -3737,7 +3765,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="27"/>
       <c r="G34" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H34" s="29">
         <v>32</v>
@@ -3746,7 +3774,7 @@
         <v>114</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>114</v>
@@ -3759,7 +3787,7 @@
         <v>33</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P34" s="22" t="s">
         <v>134</v>
@@ -3774,13 +3802,13 @@
         <v>143</v>
       </c>
       <c r="T34" s="33" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="U34" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -3794,7 +3822,7 @@
       <c r="E35" s="20"/>
       <c r="F35" s="27"/>
       <c r="G35" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H35" s="28">
         <v>33</v>
@@ -3803,7 +3831,7 @@
         <v>114</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>114</v>
@@ -3814,7 +3842,7 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P35" s="22" t="s">
         <v>134</v>
@@ -3825,7 +3853,7 @@
       <c r="T35" s="33"/>
       <c r="U35" s="18"/>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -3839,7 +3867,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="27"/>
       <c r="G36" s="31" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H36" s="29">
         <v>34</v>
@@ -3848,7 +3876,7 @@
         <v>114</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>114</v>
@@ -3861,7 +3889,7 @@
         <v>52</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P36" s="22" t="s">
         <v>134</v>
@@ -3876,13 +3904,13 @@
         <v>143</v>
       </c>
       <c r="T36" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U36" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
@@ -3896,7 +3924,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="27"/>
       <c r="G37" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H37" s="28">
         <v>35</v>
@@ -3916,7 +3944,7 @@
         <v>32</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P37" s="22" t="s">
         <v>114</v>
@@ -3931,16 +3959,16 @@
         <v>143</v>
       </c>
       <c r="T37" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U37" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15" customHeight="1">
       <c r="D40" s="10"/>
     </row>
-    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15" customHeight="1">
       <c r="A78" s="9" t="s">
         <v>34</v>
       </c>
@@ -3957,62 +3985,62 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15" customHeight="1">
       <c r="A80" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" customHeight="1">
       <c r="A81" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15" customHeight="1">
       <c r="A82" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="15" customHeight="1">
       <c r="A83" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="15" customHeight="1">
       <c r="A84" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="15" customHeight="1">
       <c r="A85" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15" customHeight="1">
       <c r="A86" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="15" customHeight="1">
       <c r="A87" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="15" customHeight="1">
       <c r="A88" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="15" customHeight="1">
       <c r="A89" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="15" customHeight="1">
       <c r="A90" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="15" customHeight="1">
       <c r="A91" s="9" t="s">
         <v>52</v>
       </c>
@@ -4020,7 +4048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="15" customHeight="1">
       <c r="A92" s="9" t="s">
         <v>53</v>
       </c>
@@ -4028,7 +4056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15" customHeight="1">
       <c r="A93" s="9" t="s">
         <v>54</v>
       </c>
@@ -4036,7 +4064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="15" customHeight="1">
       <c r="A94" s="9" t="s">
         <v>55</v>
       </c>
@@ -4044,7 +4072,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="15" customHeight="1">
       <c r="A95" s="9" t="s">
         <v>14</v>
       </c>
@@ -4052,7 +4080,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="15" customHeight="1">
       <c r="A96" s="9" t="s">
         <v>15</v>
       </c>
@@ -4060,7 +4088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="15" customHeight="1">
       <c r="A97" s="9" t="s">
         <v>16</v>
       </c>
@@ -4068,7 +4096,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="15" customHeight="1">
       <c r="A98" s="9" t="s">
         <v>17</v>
       </c>
@@ -4076,7 +4104,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="15" customHeight="1">
       <c r="A99" s="9" t="s">
         <v>18</v>
       </c>
@@ -4084,7 +4112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15" customHeight="1">
       <c r="A100" s="9" t="s">
         <v>19</v>
       </c>
@@ -4092,7 +4120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="15" customHeight="1">
       <c r="A101" s="9" t="s">
         <v>20</v>
       </c>
@@ -4100,7 +4128,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="15" customHeight="1">
       <c r="A102" s="9" t="s">
         <v>21</v>
       </c>
@@ -4108,7 +4136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="15" customHeight="1">
       <c r="A103" s="9" t="s">
         <v>22</v>
       </c>
@@ -4116,7 +4144,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="15" customHeight="1">
       <c r="A104" s="9" t="s">
         <v>23</v>
       </c>
@@ -4124,7 +4152,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="15" customHeight="1">
       <c r="A105" s="9" t="s">
         <v>24</v>
       </c>
@@ -4132,7 +4160,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="15" customHeight="1">
       <c r="A106" s="9" t="s">
         <v>25</v>
       </c>
@@ -4140,7 +4168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="15" customHeight="1">
       <c r="A107" s="9" t="s">
         <v>26</v>
       </c>
@@ -4148,7 +4176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="15" customHeight="1">
       <c r="A108" s="9" t="s">
         <v>27</v>
       </c>
@@ -4156,7 +4184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="15" customHeight="1">
       <c r="A109" s="9" t="s">
         <v>28</v>
       </c>
@@ -4164,7 +4192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="15" customHeight="1">
       <c r="A110" s="9" t="s">
         <v>29</v>
       </c>
@@ -4172,7 +4200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="15" customHeight="1">
       <c r="A111" s="9" t="s">
         <v>30</v>
       </c>
@@ -4180,7 +4208,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="15" customHeight="1">
       <c r="A112" s="9" t="s">
         <v>31</v>
       </c>
@@ -4188,7 +4216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="15" customHeight="1">
       <c r="A113" s="9" t="s">
         <v>32</v>
       </c>
@@ -4196,7 +4224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="15" customHeight="1">
       <c r="A114" s="9" t="s">
         <v>33</v>
       </c>
@@ -4204,7 +4232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="15" customHeight="1">
       <c r="A115" s="9" t="s">
         <v>56</v>
       </c>
@@ -4212,7 +4240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="15" customHeight="1">
       <c r="A116" s="9" t="s">
         <v>57</v>
       </c>
@@ -4220,7 +4248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="15" customHeight="1">
       <c r="A117" s="9" t="s">
         <v>58</v>
       </c>
@@ -4228,7 +4256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="15" customHeight="1">
       <c r="A118" s="9" t="s">
         <v>59</v>
       </c>
@@ -4236,7 +4264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="15" customHeight="1">
       <c r="A119" s="9" t="s">
         <v>60</v>
       </c>
@@ -4244,7 +4272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="15" customHeight="1">
       <c r="A120" s="9" t="s">
         <v>61</v>
       </c>
@@ -4252,7 +4280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="15" customHeight="1">
       <c r="A121" s="9" t="s">
         <v>62</v>
       </c>
@@ -4260,7 +4288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="15" customHeight="1">
       <c r="A122" s="9" t="s">
         <v>63</v>
       </c>
@@ -4268,7 +4296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="15" customHeight="1">
       <c r="A123" s="9" t="s">
         <v>64</v>
       </c>
@@ -4276,7 +4304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="15" customHeight="1">
       <c r="A124" s="9" t="s">
         <v>65</v>
       </c>
@@ -4284,7 +4312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="15" customHeight="1">
       <c r="A125" s="9" t="s">
         <v>66</v>
       </c>
@@ -4292,7 +4320,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="15" customHeight="1">
       <c r="A126" s="9" t="s">
         <v>67</v>
       </c>
@@ -4300,7 +4328,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="15" customHeight="1">
       <c r="A127" s="9" t="s">
         <v>68</v>
       </c>
@@ -4308,7 +4336,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="15" customHeight="1">
       <c r="A128" s="9" t="s">
         <v>69</v>
       </c>
@@ -4316,7 +4344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="15" customHeight="1">
       <c r="A129" s="9" t="s">
         <v>70</v>
       </c>
@@ -4324,7 +4352,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="15" customHeight="1">
       <c r="A130" s="9" t="s">
         <v>71</v>
       </c>
@@ -4332,7 +4360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="15" customHeight="1">
       <c r="A131" s="9" t="s">
         <v>72</v>
       </c>
@@ -4340,7 +4368,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="15" customHeight="1">
       <c r="A132" s="9" t="s">
         <v>73</v>
       </c>
@@ -4348,7 +4376,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="15" customHeight="1">
       <c r="A133" s="9" t="s">
         <v>74</v>
       </c>
@@ -4356,7 +4384,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="15" customHeight="1">
       <c r="A134" s="9" t="s">
         <v>75</v>
       </c>
@@ -4364,7 +4392,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="15" customHeight="1">
       <c r="A135" s="9" t="s">
         <v>76</v>
       </c>
@@ -4372,7 +4400,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="15" customHeight="1">
       <c r="A136" s="9" t="s">
         <v>77</v>
       </c>
@@ -4380,7 +4408,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="15" customHeight="1">
       <c r="A137" s="9" t="s">
         <v>78</v>
       </c>
@@ -4388,7 +4416,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="15" customHeight="1">
       <c r="A138" s="9" t="s">
         <v>79</v>
       </c>
@@ -4396,7 +4424,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="15" customHeight="1">
       <c r="A139" s="9" t="s">
         <v>80</v>
       </c>
@@ -4404,7 +4432,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="15" customHeight="1">
       <c r="A140" s="9" t="s">
         <v>81</v>
       </c>
@@ -4412,7 +4440,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="15" customHeight="1">
       <c r="A141" s="9" t="s">
         <v>82</v>
       </c>
@@ -4420,7 +4448,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="15" customHeight="1">
       <c r="A142" s="9" t="s">
         <v>83</v>
       </c>
@@ -4428,7 +4456,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="15" customHeight="1">
       <c r="A143" s="9" t="s">
         <v>84</v>
       </c>
@@ -4436,7 +4464,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="15" customHeight="1">
       <c r="A144" s="9" t="s">
         <v>85</v>
       </c>
@@ -4444,7 +4472,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="15" customHeight="1">
       <c r="A145" s="9" t="s">
         <v>86</v>
       </c>
@@ -4452,7 +4480,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="15" customHeight="1">
       <c r="A146" s="9" t="s">
         <v>87</v>
       </c>
@@ -4460,7 +4488,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="15" customHeight="1">
       <c r="A147" s="9" t="s">
         <v>88</v>
       </c>
@@ -4468,7 +4496,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="15" customHeight="1">
       <c r="A148" s="9" t="s">
         <v>89</v>
       </c>
@@ -4476,7 +4504,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="15" customHeight="1">
       <c r="A149" s="9" t="s">
         <v>90</v>
       </c>
@@ -4484,7 +4512,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="15" customHeight="1">
       <c r="A150" s="9" t="s">
         <v>91</v>
       </c>
@@ -4492,7 +4520,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="15" customHeight="1">
       <c r="A151" s="9" t="s">
         <v>92</v>
       </c>
@@ -4500,7 +4528,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="15" customHeight="1">
       <c r="A152" s="9" t="s">
         <v>93</v>
       </c>
@@ -4508,7 +4536,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="15" customHeight="1">
       <c r="A153" s="9" t="s">
         <v>94</v>
       </c>
@@ -4516,7 +4544,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="15" customHeight="1">
       <c r="A154" s="9" t="s">
         <v>95</v>
       </c>
@@ -4524,7 +4552,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="15" customHeight="1">
       <c r="A155" s="9" t="s">
         <v>96</v>
       </c>
@@ -4532,7 +4560,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="15" customHeight="1">
       <c r="A156" s="9" t="s">
         <v>97</v>
       </c>
@@ -4540,7 +4568,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="15" customHeight="1">
       <c r="A157" s="9" t="s">
         <v>98</v>
       </c>
@@ -4548,7 +4576,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="15" customHeight="1">
       <c r="A158" s="9" t="s">
         <v>99</v>
       </c>
@@ -4556,7 +4584,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="15" customHeight="1">
       <c r="A159" s="9" t="s">
         <v>100</v>
       </c>
@@ -4564,7 +4592,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="15" customHeight="1">
       <c r="A160" s="9" t="s">
         <v>101</v>
       </c>
@@ -4572,7 +4600,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="15" customHeight="1">
       <c r="A161" s="9" t="s">
         <v>102</v>
       </c>
@@ -4580,7 +4608,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="15" customHeight="1">
       <c r="A162" s="9" t="s">
         <v>103</v>
       </c>
@@ -4588,7 +4616,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="15" customHeight="1">
       <c r="A163" s="9" t="s">
         <v>104</v>
       </c>
@@ -4596,7 +4624,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="15" customHeight="1">
       <c r="A164" s="9" t="s">
         <v>105</v>
       </c>
@@ -4604,7 +4632,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="15" customHeight="1">
       <c r="A165" s="9" t="s">
         <v>106</v>
       </c>
@@ -4612,7 +4640,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="15" customHeight="1">
       <c r="A166" s="9" t="s">
         <v>107</v>
       </c>
@@ -4620,7 +4648,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="15" customHeight="1">
       <c r="A167" s="9" t="s">
         <v>108</v>
       </c>
@@ -4628,7 +4656,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="15" customHeight="1">
       <c r="A168" s="9" t="s">
         <v>109</v>
       </c>
@@ -4636,7 +4664,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="15" customHeight="1">
       <c r="A169" s="9" t="s">
         <v>110</v>
       </c>
@@ -4644,69 +4672,63 @@
         <v>99</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="15" customHeight="1">
       <c r="G170" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="15" customHeight="1">
       <c r="G171" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="15" customHeight="1">
       <c r="G172" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="15" customHeight="1">
       <c r="G173" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="15" customHeight="1">
       <c r="G174" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="15" customHeight="1">
       <c r="G175" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="15" customHeight="1">
       <c r="G176" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="177" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="7:7" ht="15" customHeight="1">
       <c r="G177" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="178" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="7:7" ht="15" customHeight="1">
       <c r="G178" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="179" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="7:7" ht="15" customHeight="1">
       <c r="G179" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="180" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="7:7" ht="15" customHeight="1">
       <c r="G180" s="10" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -4721,6 +4743,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A37">
@@ -4743,7 +4771,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4758,7 +4785,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/fuentes/contenidos/grado06/guion07/Escaleta_MA_06_07_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion07/Escaleta_MA_06_07_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1580" windowWidth="23420" windowHeight="13960"/>
+    <workbookView xWindow="1100" yWindow="0" windowWidth="25040" windowHeight="14020"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="283">
   <si>
     <t>Asignatura</t>
   </si>
@@ -759,9 +759,6 @@
   </si>
   <si>
     <t>Plantear en la imagen la fracción decimal y en las opciones de selección la expresión decimal.</t>
-  </si>
-  <si>
-    <t>Los decimales  en fracciones</t>
   </si>
   <si>
     <t>Interactivo que muestra una secuencia de imágenes que explica los ordenes de unidades de un número decimal</t>
@@ -982,14 +979,27 @@
   <si>
     <t>Explicar cómo se ubican decimales en la recta, tener en cuenta una cifra decimal, dos cifras decimales y tres cifras decimales. Generalizar la forma de ubicar cualquier decimal</t>
   </si>
+  <si>
+    <t>Los decimales y otras fracciones</t>
+  </si>
+  <si>
+    <t>Conversión entre fracciones y decimales</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1288,189 +1298,189 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1784,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1794,8 +1804,8 @@
     <col min="2" max="2" width="22" style="9" customWidth="1"/>
     <col min="3" max="3" width="44.1640625" style="9" customWidth="1"/>
     <col min="4" max="4" width="56.6640625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="25" customWidth="1"/>
+    <col min="5" max="5" width="39.5" style="25" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="25" customWidth="1"/>
     <col min="7" max="7" width="61.1640625" style="10" customWidth="1"/>
     <col min="8" max="9" width="14" style="10"/>
     <col min="10" max="10" width="61.83203125" style="9" customWidth="1"/>
@@ -1819,28 +1829,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="F1" s="51" t="s">
         <v>269</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>270</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" s="55" t="s">
         <v>271</v>
-      </c>
-      <c r="I1" s="55" t="s">
-        <v>272</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L1" s="41" t="s">
         <v>5</v>
@@ -1849,25 +1859,25 @@
         <v>6</v>
       </c>
       <c r="N1" s="45"/>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="57" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1890,13 +1900,13 @@
       <c r="N2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="36"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="57"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -1916,7 +1926,7 @@
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H3" s="28">
         <v>1</v>
@@ -1979,7 +1989,7 @@
         <v>140</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H4" s="29">
         <v>2</v>
@@ -2042,7 +2052,7 @@
         <v>119</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H5" s="28">
         <v>3</v>
@@ -2064,7 +2074,7 @@
         <v>21</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P5" s="22" t="s">
         <v>134</v>
@@ -2099,10 +2109,10 @@
         <v>116</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>195</v>
@@ -2173,7 +2183,7 @@
         <v>134</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>134</v>
@@ -2230,7 +2240,7 @@
         <v>114</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>134</v>
@@ -2280,7 +2290,7 @@
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H9" s="28">
         <v>7</v>
@@ -2348,7 +2358,7 @@
         <v>114</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>114</v>
@@ -2400,7 +2410,7 @@
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H11" s="28">
         <v>9</v>
@@ -2516,7 +2526,7 @@
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H13" s="28">
         <v>11</v>
@@ -2579,7 +2589,7 @@
         <v>127</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H14" s="29">
         <v>12</v>
@@ -2810,12 +2820,12 @@
         <v>151</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="27"/>
       <c r="G18" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H18" s="29">
         <v>16</v>
@@ -2869,7 +2879,7 @@
         <v>151</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>129</v>
@@ -2930,7 +2940,7 @@
         <v>151</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>130</v>
@@ -2991,7 +3001,7 @@
         <v>151</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="27"/>
@@ -3048,12 +3058,12 @@
         <v>151</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="27"/>
       <c r="G22" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H22" s="29">
         <v>20</v>
@@ -3107,14 +3117,14 @@
         <v>151</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>123</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H23" s="28">
         <v>21</v>
@@ -3168,12 +3178,12 @@
         <v>151</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="57" t="s">
-        <v>279</v>
+      <c r="G24" s="35" t="s">
+        <v>278</v>
       </c>
       <c r="H24" s="29">
         <v>22</v>
@@ -3181,8 +3191,8 @@
       <c r="I24" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="58" t="s">
-        <v>280</v>
+      <c r="J24" s="36" t="s">
+        <v>279</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>114</v>
@@ -3194,8 +3204,8 @@
         <v>13</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="59" t="s">
-        <v>281</v>
+      <c r="O24" s="37" t="s">
+        <v>280</v>
       </c>
       <c r="P24" s="22" t="s">
         <v>114</v>
@@ -3227,12 +3237,12 @@
         <v>151</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="27"/>
       <c r="G25" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="28">
         <v>23</v>
@@ -3286,14 +3296,14 @@
         <v>151</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>123</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H26" s="29">
         <v>24</v>
@@ -3468,7 +3478,7 @@
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H29" s="28">
         <v>27</v>
@@ -3706,7 +3716,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="27"/>
       <c r="G33" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H33" s="28">
         <v>31</v>
@@ -3715,7 +3725,7 @@
         <v>114</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>114</v>
@@ -3728,7 +3738,7 @@
         <v>33</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P33" s="22" t="s">
         <v>134</v>
@@ -3765,7 +3775,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="27"/>
       <c r="G34" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H34" s="29">
         <v>32</v>
@@ -3787,7 +3797,7 @@
         <v>33</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P34" s="22" t="s">
         <v>134</v>
@@ -3802,7 +3812,7 @@
         <v>143</v>
       </c>
       <c r="T34" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U34" s="18" t="s">
         <v>145</v>
@@ -3831,7 +3841,7 @@
         <v>114</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>114</v>
@@ -3867,7 +3877,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="27"/>
       <c r="G36" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H36" s="29">
         <v>34</v>
@@ -3876,7 +3886,7 @@
         <v>114</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>114</v>
@@ -4729,6 +4739,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -4743,12 +4759,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A37">

--- a/fuentes/contenidos/grado06/guion07/Escaleta_MA_06_07_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion07/Escaleta_MA_06_07_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="0" windowWidth="25040" windowHeight="14020"/>
+    <workbookView xWindow="5380" yWindow="0" windowWidth="25040" windowHeight="14020"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -1794,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>

--- a/fuentes/contenidos/grado06/guion07/Escaleta_MA_06_07_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion07/Escaleta_MA_06_07_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="0" windowWidth="25040" windowHeight="14020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -464,9 +464,6 @@
     <t>RM_01_01_CO</t>
   </si>
   <si>
-    <t>Actividad para relacionar números decimales con la fracción decimal.</t>
-  </si>
-  <si>
     <t>Recurso M10B-01</t>
   </si>
   <si>
@@ -509,18 +506,12 @@
     <t>Revisar el enunciado del recurso.</t>
   </si>
   <si>
-    <t>Actividad que permite consolidar lo aprendido sobre la estructura de los números decimales</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: La estructura del número decimal</t>
   </si>
   <si>
     <t>Los tipos de número decimal</t>
   </si>
   <si>
-    <t>Interactivo que muestra una secuencia de imágenes que explica los diferentes tipos de números decimales</t>
-  </si>
-  <si>
     <t>Caracteriza decimales</t>
   </si>
   <si>
@@ -551,12 +542,6 @@
     <t>Proponer en la imagen la fracción y en las etiquetas la expresión decimal y su clasificación: finito exacto o infinito periódico.</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Clasificación de números decimales</t>
-  </si>
-  <si>
-    <t>Actividad para reforzar lo aprendido sobre la clasificación de números decimales</t>
-  </si>
-  <si>
     <t>Plantear más ejercicios en el recurso solamente hay 4, enfocarlos hacia la representación de contextos con números decimales y clasificación de decimales.</t>
   </si>
   <si>
@@ -575,9 +560,6 @@
     <t>Aproxima decimales por redondeo</t>
   </si>
   <si>
-    <t>Actividad para practicar la aproximación de decimales por aproximación</t>
-  </si>
-  <si>
     <t>Proponer decimales y en las etiquetas colocar su aproximación por redondeo.</t>
   </si>
   <si>
@@ -602,9 +584,6 @@
     <t>Recurso M5A-01</t>
   </si>
   <si>
-    <t>Actividad para reforzar la aproximación de números decimales</t>
-  </si>
-  <si>
     <t>Platear ejercicios de razonamiento y situaciones problema referentes a la aproximación de números decimales.</t>
   </si>
   <si>
@@ -614,9 +593,6 @@
     <t>Convierte decimales en fracciones</t>
   </si>
   <si>
-    <t>Actividad para reforzar el paso de decimal a fracción</t>
-  </si>
-  <si>
     <t>El recurso no tiene modificaciones.</t>
   </si>
   <si>
@@ -635,9 +611,6 @@
     <t>Ordena números decimales</t>
   </si>
   <si>
-    <t>Actividad para practicar la ordenación de números decimales</t>
-  </si>
-  <si>
     <t>Completa la serie de números decimales</t>
   </si>
   <si>
@@ -686,9 +659,6 @@
     <t>Refuerza tu aprendizaje: Los decimales y los porcentajes</t>
   </si>
   <si>
-    <t>Actividad para reforzar los porcentajes y los decimales</t>
-  </si>
-  <si>
     <t>Proponer contextos, situaciones problema y ejercicios en los cuales se apliquen los decimales y los porcentajes.</t>
   </si>
   <si>
@@ -731,9 +701,6 @@
     <t>Revisar el interactivo y cambiar los ejemplos porque  dados con euros, entonces se hace necesario cambiar los ejemplos a otro contexto.</t>
   </si>
   <si>
-    <t>Actividad para indicar si una fracción decimal tiene una expresión decimal finita o exacta.</t>
-  </si>
-  <si>
     <t>Actividad para relacionar un contexto con el decimal infinito periódico que lo representa</t>
   </si>
   <si>
@@ -746,15 +713,9 @@
     <t>En la imagen presentar la recta numérica ubicando un punto y en las respuestas el decimal localizado.</t>
   </si>
   <si>
-    <t>Actividad para practicar la localización de números decimales en la recta numérica</t>
-  </si>
-  <si>
     <t>Proponer ejercicios de pregunta abierta en los cuales se solicita ubicar números decimales en la recta numérica o reconocer un número dependiendo su localización en la recta.</t>
   </si>
   <si>
-    <t>Actividad para aplicar el orden en los números decimales en la solución de situaciones problema</t>
-  </si>
-  <si>
     <t>Interactivo que permite recordar el concepto de fracción</t>
   </si>
   <si>
@@ -779,9 +740,6 @@
     <t>Las fracciones decimales</t>
   </si>
   <si>
-    <t>Clasifica fracciones decimales</t>
-  </si>
-  <si>
     <t>En los títulos de los contenedores debe decir Fracción decimal y Fraccón no decimal. Se dan varias fracciones para que los estudiantes clasifiquen</t>
   </si>
   <si>
@@ -806,9 +764,6 @@
     <t>Refuerza tu aprendizaje: La representación de números decimales en la recta</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: El orden en los decimales</t>
-  </si>
-  <si>
     <t>Proponer un contexto, su presentación y la aplicación de decimales en su solución, por ejemplo reconocer las calorías en los paquetes de golosinas, tiempos record en competencias de natación, etc. En las instrucciones dadas conducir al estudiantes a la investigación, el razonamiento, argumentación y solución de problemas. Construirlo en f13 con dos pestañas- en una presentación y en otra Tarea</t>
   </si>
   <si>
@@ -816,9 +771,6 @@
   </si>
   <si>
     <t>Evaluación</t>
-  </si>
-  <si>
-    <t>Mapa conceptual sobre el tema Los números decimales</t>
   </si>
   <si>
     <t>Evalúa tus conocimientos sobre el tema Los números decimales</t>
@@ -984,6 +936,166 @@
   </si>
   <si>
     <t>Conversión entre fracciones y decimales</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Refuerza tu aprendizaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>La c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lasificación de números decimales</t>
+    </r>
+  </si>
+  <si>
+    <t>Actividad para relacionar números decimales con la fracción decimal</t>
+  </si>
+  <si>
+    <t>Convierte un número decimal en fracción</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad para </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>practicar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> el paso de decimal a fracción</t>
+    </r>
+  </si>
+  <si>
+    <t>Interactivo que explica los diferentes tipos de números decimales</t>
+  </si>
+  <si>
+    <t>Actividades sobre El concepto de número decimal</t>
+  </si>
+  <si>
+    <r>
+      <t>Actividad para escribir la</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> expresión decimal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exacta de una fracción</t>
+    </r>
+  </si>
+  <si>
+    <t>Actividades sobre La clasificación de números decimales</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad para practicar la aproximación de decimales por </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>redondeo</t>
+    </r>
+  </si>
+  <si>
+    <t>Actividad sobre La aproximación de números decimales</t>
+  </si>
+  <si>
+    <t>Actividad sobre La representación de números decimales en la recta</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad para practicar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>el orden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de números decimales</t>
+    </r>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El orden en los números decimales</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sobre El orden en los números decimales</t>
+    </r>
+  </si>
+  <si>
+    <t>Actividad sobre Los decimales y los porcentajes</t>
+  </si>
+  <si>
+    <t>Mapa conceptual sobre Los números decimales</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1417,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1419,6 +1531,15 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1473,14 +1594,11 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1794,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1819,81 +1937,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="G1" s="41" t="s">
+      <c r="D1" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="I1" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="J1" s="43" t="s">
+      <c r="H1" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="L1" s="41" t="s">
+      <c r="K1" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="L1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="45"/>
+      <c r="N1" s="48"/>
       <c r="O1" s="38" t="s">
         <v>111</v>
       </c>
       <c r="P1" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="57" t="s">
+      <c r="Q1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="59" t="s">
+      <c r="R1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="57" t="s">
+      <c r="S1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="57" t="s">
+      <c r="U1" s="39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="41"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
@@ -1902,11 +2020,11 @@
       </c>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="57"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="39"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -1916,7 +2034,7 @@
         <v>115</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>116</v>
@@ -1926,7 +2044,7 @@
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="30" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="H3" s="28">
         <v>1</v>
@@ -1935,7 +2053,7 @@
         <v>134</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>114</v>
@@ -1977,7 +2095,7 @@
         <v>115</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>116</v>
@@ -1989,7 +2107,7 @@
         <v>140</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="H4" s="29">
         <v>2</v>
@@ -2011,7 +2129,7 @@
         <v>47</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="P4" s="22" t="s">
         <v>134</v>
@@ -2040,7 +2158,7 @@
         <v>115</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>116</v>
@@ -2052,7 +2170,7 @@
         <v>119</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="H5" s="28">
         <v>3</v>
@@ -2060,8 +2178,8 @@
       <c r="I5" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="21" t="s">
-        <v>146</v>
+      <c r="J5" s="61" t="s">
+        <v>268</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>114</v>
@@ -2074,7 +2192,7 @@
         <v>21</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="P5" s="22" t="s">
         <v>134</v>
@@ -2089,7 +2207,7 @@
         <v>143</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U5" s="18" t="s">
         <v>145</v>
@@ -2103,19 +2221,19 @@
         <v>115</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H6" s="29">
         <v>4</v>
@@ -2123,8 +2241,8 @@
       <c r="I6" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J6" s="21" t="s">
-        <v>196</v>
+      <c r="J6" s="61" t="s">
+        <v>270</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>134</v>
@@ -2135,25 +2253,25 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="14" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="P6" s="22" t="s">
         <v>114</v>
       </c>
       <c r="Q6" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R6" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="S6" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="S6" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="T6" s="33" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1">
@@ -2164,7 +2282,7 @@
         <v>115</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>116</v>
@@ -2174,7 +2292,7 @@
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H7" s="28">
         <v>5</v>
@@ -2183,7 +2301,7 @@
         <v>134</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>134</v>
@@ -2194,25 +2312,25 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P7" s="22" t="s">
         <v>134</v>
       </c>
       <c r="Q7" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R7" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="S7" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="S7" s="18" t="s">
+      <c r="T7" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="T7" s="33" t="s">
+      <c r="U7" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1">
@@ -2223,7 +2341,7 @@
         <v>115</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>116</v>
@@ -2231,7 +2349,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="27"/>
       <c r="G8" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H8" s="29">
         <v>6</v>
@@ -2240,7 +2358,7 @@
         <v>114</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>134</v>
@@ -2251,25 +2369,25 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P8" s="22" t="s">
         <v>134</v>
       </c>
       <c r="Q8" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R8" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="R8" s="17" t="s">
+      <c r="S8" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="S8" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="T8" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U8" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1">
@@ -2280,7 +2398,7 @@
         <v>115</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>116</v>
@@ -2290,7 +2408,7 @@
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="31" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="H9" s="28">
         <v>7</v>
@@ -2299,7 +2417,7 @@
         <v>114</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>134</v>
@@ -2310,25 +2428,25 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P9" s="22" t="s">
         <v>134</v>
       </c>
       <c r="Q9" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R9" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="R9" s="17" t="s">
+      <c r="S9" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="S9" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="T9" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U9" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1">
@@ -2339,7 +2457,7 @@
         <v>115</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>116</v>
@@ -2349,7 +2467,7 @@
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H10" s="29">
         <v>8</v>
@@ -2358,7 +2476,7 @@
         <v>114</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>114</v>
@@ -2371,7 +2489,7 @@
         <v>42</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="P10" s="22" t="s">
         <v>134</v>
@@ -2386,7 +2504,7 @@
         <v>143</v>
       </c>
       <c r="T10" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U10" s="18" t="s">
         <v>145</v>
@@ -2400,7 +2518,7 @@
         <v>115</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>116</v>
@@ -2410,7 +2528,7 @@
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="31" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="H11" s="28">
         <v>9</v>
@@ -2419,7 +2537,7 @@
         <v>114</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>161</v>
+        <v>272</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>134</v>
@@ -2430,25 +2548,25 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="14" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="P11" s="22" t="s">
         <v>134</v>
       </c>
       <c r="Q11" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R11" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="R11" s="17" t="s">
+      <c r="S11" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="S11" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="T11" s="33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U11" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1">
@@ -2459,7 +2577,7 @@
         <v>115</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>124</v>
@@ -2467,7 +2585,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="27"/>
       <c r="G12" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H12" s="29">
         <v>10</v>
@@ -2475,8 +2593,8 @@
       <c r="I12" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>164</v>
+      <c r="J12" s="61" t="s">
+        <v>271</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>134</v>
@@ -2487,25 +2605,25 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="14" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="P12" s="22" t="s">
         <v>134</v>
       </c>
       <c r="Q12" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R12" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="R12" s="17" t="s">
+      <c r="S12" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="S12" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="T12" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U12" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1">
@@ -2516,7 +2634,7 @@
         <v>115</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>124</v>
@@ -2526,7 +2644,7 @@
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="31" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="H13" s="28">
         <v>11</v>
@@ -2534,8 +2652,8 @@
       <c r="I13" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="21" t="s">
-        <v>235</v>
+      <c r="J13" s="61" t="s">
+        <v>273</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>114</v>
@@ -2548,7 +2666,7 @@
         <v>14</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P13" s="22" t="s">
         <v>134</v>
@@ -2563,7 +2681,7 @@
         <v>143</v>
       </c>
       <c r="T13" s="33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U13" s="18" t="s">
         <v>145</v>
@@ -2577,7 +2695,7 @@
         <v>115</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>124</v>
@@ -2589,7 +2707,7 @@
         <v>127</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="H14" s="29">
         <v>12</v>
@@ -2598,7 +2716,7 @@
         <v>114</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>113</v>
@@ -2609,25 +2727,25 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="14" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="P14" s="22" t="s">
         <v>114</v>
       </c>
       <c r="Q14" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R14" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="R14" s="17" t="s">
+      <c r="S14" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="S14" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="T14" s="33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1">
@@ -2638,7 +2756,7 @@
         <v>115</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>124</v>
@@ -2648,7 +2766,7 @@
         <v>127</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H15" s="28">
         <v>13</v>
@@ -2657,7 +2775,7 @@
         <v>114</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>114</v>
@@ -2670,7 +2788,7 @@
         <v>47</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P15" s="22" t="s">
         <v>134</v>
@@ -2685,7 +2803,7 @@
         <v>143</v>
       </c>
       <c r="T15" s="33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="U15" s="18" t="s">
         <v>145</v>
@@ -2699,7 +2817,7 @@
         <v>115</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>124</v>
@@ -2709,7 +2827,7 @@
         <v>128</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H16" s="29">
         <v>14</v>
@@ -2718,7 +2836,7 @@
         <v>114</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>134</v>
@@ -2729,25 +2847,25 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P16" s="22" t="s">
         <v>134</v>
       </c>
       <c r="Q16" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R16" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="R16" s="17" t="s">
+      <c r="S16" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="S16" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="T16" s="33" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="U16" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1">
@@ -2758,7 +2876,7 @@
         <v>115</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>124</v>
@@ -2767,8 +2885,8 @@
         <v>123</v>
       </c>
       <c r="F17" s="27"/>
-      <c r="G17" s="31" t="s">
-        <v>175</v>
+      <c r="G17" s="60" t="s">
+        <v>267</v>
       </c>
       <c r="H17" s="28">
         <v>15</v>
@@ -2777,7 +2895,7 @@
         <v>114</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>176</v>
+        <v>274</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>134</v>
@@ -2788,25 +2906,25 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="14" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P17" s="22" t="s">
         <v>134</v>
       </c>
       <c r="Q17" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R17" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="17" t="s">
+      <c r="S17" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="S17" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="T17" s="33" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="U17" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1">
@@ -2817,15 +2935,15 @@
         <v>115</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="27"/>
       <c r="G18" s="32" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="H18" s="29">
         <v>16</v>
@@ -2834,7 +2952,7 @@
         <v>134</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>114</v>
@@ -2847,7 +2965,7 @@
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="14" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="P18" s="22" t="s">
         <v>134</v>
@@ -2862,7 +2980,7 @@
         <v>137</v>
       </c>
       <c r="T18" s="33" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="U18" s="18" t="s">
         <v>139</v>
@@ -2876,17 +2994,17 @@
         <v>115</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>129</v>
       </c>
       <c r="F19" s="27"/>
       <c r="G19" s="31" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H19" s="28">
         <v>17</v>
@@ -2895,7 +3013,7 @@
         <v>114</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>114</v>
@@ -2908,7 +3026,7 @@
         <v>44</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P19" s="22" t="s">
         <v>134</v>
@@ -2923,7 +3041,7 @@
         <v>143</v>
       </c>
       <c r="T19" s="33" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="U19" s="18" t="s">
         <v>145</v>
@@ -2937,17 +3055,17 @@
         <v>115</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>130</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="31" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H20" s="29">
         <v>18</v>
@@ -2955,8 +3073,8 @@
       <c r="I20" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="21" t="s">
-        <v>183</v>
+      <c r="J20" s="61" t="s">
+        <v>275</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>114</v>
@@ -2969,7 +3087,7 @@
         <v>41</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P20" s="22" t="s">
         <v>134</v>
@@ -2984,7 +3102,7 @@
         <v>143</v>
       </c>
       <c r="T20" s="33" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="U20" s="18" t="s">
         <v>145</v>
@@ -2998,15 +3116,15 @@
         <v>115</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="27"/>
       <c r="G21" s="31" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H21" s="28">
         <v>19</v>
@@ -3015,7 +3133,7 @@
         <v>114</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>134</v>
@@ -3026,25 +3144,25 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="14" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P21" s="22" t="s">
         <v>134</v>
       </c>
       <c r="Q21" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R21" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="R21" s="17" t="s">
+      <c r="S21" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="S21" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="T21" s="33" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="U21" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1">
@@ -3055,15 +3173,15 @@
         <v>115</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="27"/>
       <c r="G22" s="32" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H22" s="29">
         <v>20</v>
@@ -3072,7 +3190,7 @@
         <v>114</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>114</v>
@@ -3085,7 +3203,7 @@
         <v>52</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P22" s="22" t="s">
         <v>134</v>
@@ -3100,7 +3218,7 @@
         <v>143</v>
       </c>
       <c r="T22" s="33" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="U22" s="18" t="s">
         <v>145</v>
@@ -3114,17 +3232,17 @@
         <v>115</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>123</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="31" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="H23" s="28">
         <v>21</v>
@@ -3133,7 +3251,7 @@
         <v>114</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>114</v>
@@ -3146,7 +3264,7 @@
         <v>31</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="P23" s="22" t="s">
         <v>134</v>
@@ -3161,7 +3279,7 @@
         <v>143</v>
       </c>
       <c r="T23" s="33" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="U23" s="18" t="s">
         <v>145</v>
@@ -3175,15 +3293,15 @@
         <v>115</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="27"/>
       <c r="G24" s="35" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="H24" s="29">
         <v>22</v>
@@ -3192,7 +3310,7 @@
         <v>134</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>114</v>
@@ -3205,7 +3323,7 @@
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="37" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="P24" s="22" t="s">
         <v>114</v>
@@ -3220,7 +3338,7 @@
         <v>137</v>
       </c>
       <c r="T24" s="33" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="U24" s="18" t="s">
         <v>139</v>
@@ -3234,15 +3352,15 @@
         <v>115</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="27"/>
       <c r="G25" s="31" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="H25" s="28">
         <v>23</v>
@@ -3251,7 +3369,7 @@
         <v>114</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>114</v>
@@ -3264,7 +3382,7 @@
         <v>52</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="P25" s="22" t="s">
         <v>134</v>
@@ -3279,7 +3397,7 @@
         <v>143</v>
       </c>
       <c r="T25" s="33" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="U25" s="18" t="s">
         <v>145</v>
@@ -3293,17 +3411,17 @@
         <v>115</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>123</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="31" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="H26" s="29">
         <v>24</v>
@@ -3312,7 +3430,7 @@
         <v>114</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>114</v>
@@ -3325,7 +3443,7 @@
         <v>31</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="P26" s="22" t="s">
         <v>134</v>
@@ -3340,7 +3458,7 @@
         <v>143</v>
       </c>
       <c r="T26" s="33" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="U26" s="18" t="s">
         <v>145</v>
@@ -3354,7 +3472,7 @@
         <v>115</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>131</v>
@@ -3362,7 +3480,7 @@
       <c r="E27" s="20"/>
       <c r="F27" s="27"/>
       <c r="G27" s="31" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H27" s="28">
         <v>25</v>
@@ -3370,8 +3488,8 @@
       <c r="I27" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J27" s="21" t="s">
-        <v>203</v>
+      <c r="J27" s="61" t="s">
+        <v>278</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>134</v>
@@ -3382,25 +3500,25 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="14" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="P27" s="22" t="s">
         <v>134</v>
       </c>
       <c r="Q27" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R27" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="R27" s="17" t="s">
+      <c r="S27" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="S27" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="T27" s="33" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="U27" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1">
@@ -3411,7 +3529,7 @@
         <v>115</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>131</v>
@@ -3419,7 +3537,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="27"/>
       <c r="G28" s="31" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H28" s="29">
         <v>26</v>
@@ -3428,7 +3546,7 @@
         <v>114</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>134</v>
@@ -3439,25 +3557,25 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="14" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="P28" s="22" t="s">
         <v>114</v>
       </c>
       <c r="Q28" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R28" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="R28" s="17" t="s">
+      <c r="S28" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="S28" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="T28" s="33" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="U28" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" customHeight="1">
@@ -3468,7 +3586,7 @@
         <v>115</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>131</v>
@@ -3477,8 +3595,8 @@
         <v>123</v>
       </c>
       <c r="F29" s="27"/>
-      <c r="G29" s="31" t="s">
-        <v>260</v>
+      <c r="G29" s="60" t="s">
+        <v>279</v>
       </c>
       <c r="H29" s="28">
         <v>27</v>
@@ -3486,8 +3604,8 @@
       <c r="I29" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J29" s="21" t="s">
-        <v>242</v>
+      <c r="J29" s="61" t="s">
+        <v>280</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>114</v>
@@ -3500,7 +3618,7 @@
         <v>31</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="P29" s="22" t="s">
         <v>134</v>
@@ -3515,7 +3633,7 @@
         <v>143</v>
       </c>
       <c r="T29" s="33" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="U29" s="18" t="s">
         <v>145</v>
@@ -3529,7 +3647,7 @@
         <v>115</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>132</v>
@@ -3537,7 +3655,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="27"/>
       <c r="G30" s="31" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H30" s="29">
         <v>28</v>
@@ -3546,7 +3664,7 @@
         <v>134</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>114</v>
@@ -3559,7 +3677,7 @@
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="14" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="P30" s="22" t="s">
         <v>134</v>
@@ -3574,7 +3692,7 @@
         <v>137</v>
       </c>
       <c r="T30" s="33" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="U30" s="18" t="s">
         <v>139</v>
@@ -3588,7 +3706,7 @@
         <v>115</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>132</v>
@@ -3596,7 +3714,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="27"/>
       <c r="G31" s="31" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H31" s="28">
         <v>29</v>
@@ -3605,7 +3723,7 @@
         <v>114</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>114</v>
@@ -3618,7 +3736,7 @@
         <v>51</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="P31" s="22" t="s">
         <v>134</v>
@@ -3633,7 +3751,7 @@
         <v>143</v>
       </c>
       <c r="T31" s="33" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="U31" s="18" t="s">
         <v>145</v>
@@ -3647,7 +3765,7 @@
         <v>115</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>132</v>
@@ -3657,7 +3775,7 @@
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="31" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H32" s="29">
         <v>30</v>
@@ -3666,7 +3784,7 @@
         <v>114</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>114</v>
@@ -3679,7 +3797,7 @@
         <v>31</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="P32" s="22" t="s">
         <v>134</v>
@@ -3694,7 +3812,7 @@
         <v>143</v>
       </c>
       <c r="T32" s="33" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="U32" s="18" t="s">
         <v>145</v>
@@ -3708,7 +3826,7 @@
         <v>115</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>133</v>
@@ -3716,7 +3834,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="27"/>
       <c r="G33" s="32" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="H33" s="28">
         <v>31</v>
@@ -3725,7 +3843,7 @@
         <v>114</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>114</v>
@@ -3738,7 +3856,7 @@
         <v>33</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="P33" s="22" t="s">
         <v>134</v>
@@ -3753,7 +3871,7 @@
         <v>143</v>
       </c>
       <c r="T33" s="33" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="U33" s="18" t="s">
         <v>145</v>
@@ -3767,7 +3885,7 @@
         <v>115</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>133</v>
@@ -3775,7 +3893,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="27"/>
       <c r="G34" s="32" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="H34" s="29">
         <v>32</v>
@@ -3784,7 +3902,7 @@
         <v>114</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>114</v>
@@ -3797,7 +3915,7 @@
         <v>33</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="P34" s="22" t="s">
         <v>134</v>
@@ -3812,7 +3930,7 @@
         <v>143</v>
       </c>
       <c r="T34" s="33" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="U34" s="18" t="s">
         <v>145</v>
@@ -3826,13 +3944,13 @@
         <v>115</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="20"/>
       <c r="F35" s="27"/>
       <c r="G35" s="31" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="H35" s="28">
         <v>33</v>
@@ -3841,7 +3959,7 @@
         <v>114</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>114</v>
@@ -3852,7 +3970,7 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="14" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="P35" s="22" t="s">
         <v>134</v>
@@ -3871,13 +3989,13 @@
         <v>115</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="20"/>
       <c r="F36" s="27"/>
       <c r="G36" s="31" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="H36" s="29">
         <v>34</v>
@@ -3886,7 +4004,7 @@
         <v>114</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>114</v>
@@ -3899,7 +4017,7 @@
         <v>52</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="P36" s="22" t="s">
         <v>134</v>
@@ -3914,7 +4032,7 @@
         <v>143</v>
       </c>
       <c r="T36" s="33" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="U36" s="18" t="s">
         <v>145</v>
@@ -3928,13 +4046,13 @@
         <v>115</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="20"/>
       <c r="F37" s="27"/>
       <c r="G37" s="31" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="H37" s="28">
         <v>35</v>
@@ -3954,7 +4072,7 @@
         <v>32</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="P37" s="22" t="s">
         <v>114</v>
@@ -3969,7 +4087,7 @@
         <v>143</v>
       </c>
       <c r="T37" s="33" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="U37" s="18" t="s">
         <v>145</v>
@@ -4739,12 +4857,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -4759,6 +4871,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A37">

--- a/fuentes/contenidos/grado06/guion07/Escaleta_MA_06_07_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion07/Escaleta_MA_06_07_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="284">
   <si>
     <t>Asignatura</t>
   </si>
@@ -723,9 +723,6 @@
   </si>
   <si>
     <t>Interactivo que muestra una secuencia de imágenes que explica los ordenes de unidades de un número decimal</t>
-  </si>
-  <si>
-    <t>Actividad que propone practicar el cálculo con número decimales</t>
   </si>
   <si>
     <t>Efectúa descomposiciones decimales</t>
@@ -1097,14 +1094,27 @@
   <si>
     <t>Mapa conceptual sobre Los números decimales</t>
   </si>
+  <si>
+    <t>Convierte una fracción en decimal</t>
+  </si>
+  <si>
+    <t>Actividad para realizar conversiones entre fracciones y decimales</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1410,114 +1420,123 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1525,74 +1544,71 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1913,7 +1929,7 @@
   <dimension ref="A1:U180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1937,94 +1953,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="F1" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="G1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="G1" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="56" t="s">
+      <c r="I1" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="I1" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="L1" s="44" t="s">
+      <c r="K1" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="L1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="59" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="44"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="43"/>
       <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="39"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -2044,7 +2060,7 @@
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H3" s="28">
         <v>1</v>
@@ -2107,7 +2123,7 @@
         <v>140</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H4" s="29">
         <v>2</v>
@@ -2170,7 +2186,7 @@
         <v>119</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H5" s="28">
         <v>3</v>
@@ -2178,8 +2194,8 @@
       <c r="I5" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="61" t="s">
-        <v>268</v>
+      <c r="J5" s="39" t="s">
+        <v>267</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>114</v>
@@ -2192,7 +2208,7 @@
         <v>21</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P5" s="22" t="s">
         <v>134</v>
@@ -2227,10 +2243,10 @@
         <v>116</v>
       </c>
       <c r="E6" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>265</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>266</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>188</v>
@@ -2241,8 +2257,8 @@
       <c r="I6" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J6" s="61" t="s">
-        <v>270</v>
+      <c r="J6" s="39" t="s">
+        <v>269</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>134</v>
@@ -2348,8 +2364,8 @@
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="31" t="s">
-        <v>158</v>
+      <c r="G8" s="62" t="s">
+        <v>282</v>
       </c>
       <c r="H8" s="29">
         <v>6</v>
@@ -2357,8 +2373,8 @@
       <c r="I8" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="21" t="s">
-        <v>233</v>
+      <c r="J8" s="63" t="s">
+        <v>283</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>134</v>
@@ -2408,7 +2424,7 @@
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H9" s="28">
         <v>7</v>
@@ -2476,7 +2492,7 @@
         <v>114</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>114</v>
@@ -2528,7 +2544,7 @@
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H11" s="28">
         <v>9</v>
@@ -2537,7 +2553,7 @@
         <v>114</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>134</v>
@@ -2593,8 +2609,8 @@
       <c r="I12" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J12" s="61" t="s">
-        <v>271</v>
+      <c r="J12" s="39" t="s">
+        <v>270</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>134</v>
@@ -2644,7 +2660,7 @@
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H13" s="28">
         <v>11</v>
@@ -2652,8 +2668,8 @@
       <c r="I13" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="61" t="s">
-        <v>273</v>
+      <c r="J13" s="39" t="s">
+        <v>272</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>114</v>
@@ -2707,7 +2723,7 @@
         <v>127</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H14" s="29">
         <v>12</v>
@@ -2885,8 +2901,8 @@
         <v>123</v>
       </c>
       <c r="F17" s="27"/>
-      <c r="G17" s="60" t="s">
-        <v>267</v>
+      <c r="G17" s="38" t="s">
+        <v>266</v>
       </c>
       <c r="H17" s="28">
         <v>15</v>
@@ -2895,7 +2911,7 @@
         <v>114</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>134</v>
@@ -2938,12 +2954,12 @@
         <v>150</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="27"/>
       <c r="G18" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H18" s="29">
         <v>16</v>
@@ -2997,7 +3013,7 @@
         <v>150</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>129</v>
@@ -3058,7 +3074,7 @@
         <v>150</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>130</v>
@@ -3073,8 +3089,8 @@
       <c r="I20" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="61" t="s">
-        <v>275</v>
+      <c r="J20" s="39" t="s">
+        <v>274</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>114</v>
@@ -3119,7 +3135,7 @@
         <v>150</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="27"/>
@@ -3176,12 +3192,12 @@
         <v>150</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="27"/>
       <c r="G22" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H22" s="29">
         <v>20</v>
@@ -3235,14 +3251,14 @@
         <v>150</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>123</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H23" s="28">
         <v>21</v>
@@ -3251,7 +3267,7 @@
         <v>114</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>114</v>
@@ -3296,12 +3312,12 @@
         <v>150</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="27"/>
       <c r="G24" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H24" s="29">
         <v>22</v>
@@ -3310,7 +3326,7 @@
         <v>134</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>114</v>
@@ -3323,7 +3339,7 @@
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P24" s="22" t="s">
         <v>114</v>
@@ -3355,12 +3371,12 @@
         <v>150</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="27"/>
       <c r="G25" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H25" s="28">
         <v>23</v>
@@ -3414,14 +3430,14 @@
         <v>150</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>123</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H26" s="29">
         <v>24</v>
@@ -3430,7 +3446,7 @@
         <v>114</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>114</v>
@@ -3488,8 +3504,8 @@
       <c r="I27" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J27" s="61" t="s">
-        <v>278</v>
+      <c r="J27" s="39" t="s">
+        <v>277</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>134</v>
@@ -3595,8 +3611,8 @@
         <v>123</v>
       </c>
       <c r="F29" s="27"/>
-      <c r="G29" s="60" t="s">
-        <v>279</v>
+      <c r="G29" s="38" t="s">
+        <v>278</v>
       </c>
       <c r="H29" s="28">
         <v>27</v>
@@ -3604,8 +3620,8 @@
       <c r="I29" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J29" s="61" t="s">
-        <v>280</v>
+      <c r="J29" s="39" t="s">
+        <v>279</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>114</v>
@@ -3784,7 +3800,7 @@
         <v>114</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>114</v>
@@ -3834,7 +3850,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="27"/>
       <c r="G33" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H33" s="28">
         <v>31</v>
@@ -3843,7 +3859,7 @@
         <v>114</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>114</v>
@@ -3856,7 +3872,7 @@
         <v>33</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P33" s="22" t="s">
         <v>134</v>
@@ -3893,7 +3909,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="27"/>
       <c r="G34" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H34" s="29">
         <v>32</v>
@@ -3915,7 +3931,7 @@
         <v>33</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P34" s="22" t="s">
         <v>134</v>
@@ -3930,7 +3946,7 @@
         <v>143</v>
       </c>
       <c r="T34" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U34" s="18" t="s">
         <v>145</v>
@@ -3959,7 +3975,7 @@
         <v>114</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>114</v>
@@ -3995,7 +4011,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="27"/>
       <c r="G36" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H36" s="29">
         <v>34</v>
@@ -4004,7 +4020,7 @@
         <v>114</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>114</v>
@@ -4857,6 +4873,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -4871,12 +4893,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A37">

--- a/fuentes/contenidos/grado06/guion07/Escaleta_MA_06_07_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion07/Escaleta_MA_06_07_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600"/>
+    <workbookView minimized="1" xWindow="560" yWindow="460" windowWidth="25040" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -599,9 +599,6 @@
     <t>Recurso F6B-01</t>
   </si>
   <si>
-    <t>Actividad para practicar la ubicación de números decimales en la recta numérica.</t>
-  </si>
-  <si>
     <t>Recurso M5A-02</t>
   </si>
   <si>
@@ -790,9 +787,6 @@
   </si>
   <si>
     <t>Fichas</t>
-  </si>
-  <si>
-    <t>Actividad que muestra una aplicación de los números decimales en unn contexto cotidiano</t>
   </si>
   <si>
     <t>Recurso M102AB-02</t>
@@ -1099,6 +1093,12 @@
   </si>
   <si>
     <t>Actividad para realizar conversiones entre fracciones y decimales</t>
+  </si>
+  <si>
+    <t>Actividad para practicar la ubicación de números decimales en la recta numérica</t>
+  </si>
+  <si>
+    <t>Actividad que muestra una aplicación de los números decimales en un contexto cotidiano</t>
   </si>
 </sst>
 </file>
@@ -1465,9 +1465,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1547,6 +1544,15 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1601,14 +1607,8 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1928,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="F18" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1937,9 +1937,9 @@
     <col min="1" max="1" width="14" style="9"/>
     <col min="2" max="2" width="22" style="9" customWidth="1"/>
     <col min="3" max="3" width="44.1640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="56.6640625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="39.5" style="25" customWidth="1"/>
-    <col min="6" max="6" width="41.5" style="25" customWidth="1"/>
+    <col min="4" max="4" width="56.6640625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="39.5" style="24" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="24" customWidth="1"/>
     <col min="7" max="7" width="61.1640625" style="10" customWidth="1"/>
     <col min="8" max="9" width="14" style="10"/>
     <col min="10" max="10" width="61.83203125" style="9" customWidth="1"/>
@@ -1947,100 +1947,100 @@
     <col min="15" max="15" width="39.5" style="9" customWidth="1"/>
     <col min="16" max="16" width="16" style="10" customWidth="1"/>
     <col min="17" max="19" width="14" style="10"/>
-    <col min="20" max="20" width="37" style="34" customWidth="1"/>
+    <col min="20" max="20" width="37" style="33" customWidth="1"/>
     <col min="21" max="21" width="14" style="10"/>
-    <col min="22" max="16384" width="14" style="19"/>
+    <col min="22" max="16384" width="14" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="F1" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="G1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="55" t="s">
+      <c r="I1" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="44" t="s">
-        <v>249</v>
-      </c>
-      <c r="L1" s="43" t="s">
+      <c r="K1" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="L1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="40" t="s">
+      <c r="N1" s="49"/>
+      <c r="O1" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="Q1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="59" t="s">
+      <c r="S1" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="T1" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="U1" s="40" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="43"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="45"/>
       <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="59"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="40"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -2058,18 +2058,18 @@
       <c r="E3" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="H3" s="28">
+      <c r="F3" s="25"/>
+      <c r="G3" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="H3" s="27">
         <v>1</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>230</v>
+      <c r="J3" s="61" t="s">
+        <v>229</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>114</v>
@@ -2081,25 +2081,25 @@
         <v>11</v>
       </c>
       <c r="N3" s="6"/>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="P3" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q3" s="16">
+      <c r="P3" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q3" s="15">
         <v>6</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="17" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2116,22 +2116,22 @@
       <c r="D4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="29">
+      <c r="G4" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="28">
         <v>2</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="20" t="s">
         <v>141</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -2144,25 +2144,25 @@
       <c r="N4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="P4" s="22" t="s">
+      <c r="O4" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="P4" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="17">
         <v>6</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="R4" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="U4" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2179,23 +2179,23 @@
       <c r="D5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="H5" s="28">
+      <c r="G5" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="27">
         <v>3</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="39" t="s">
-        <v>267</v>
+      <c r="J5" s="38" t="s">
+        <v>265</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>114</v>
@@ -2207,25 +2207,25 @@
       <c r="N5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="P5" s="22" t="s">
+      <c r="O5" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="P5" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="17">
         <v>6</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="R5" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="S5" s="18" t="s">
+      <c r="S5" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="U5" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2242,23 +2242,23 @@
       <c r="D6" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="G6" s="31" t="s">
+      <c r="E6" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="28">
         <v>4</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J6" s="39" t="s">
-        <v>269</v>
+      <c r="J6" s="38" t="s">
+        <v>267</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>134</v>
@@ -2268,25 +2268,25 @@
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="P6" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q6" s="18" t="s">
+      <c r="P6" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q6" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="R6" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="T6" s="33" t="s">
+      <c r="T6" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="U6" s="18" t="s">
+      <c r="U6" s="17" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2303,21 +2303,21 @@
       <c r="D7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="26"/>
+      <c r="G7" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="27">
         <v>5</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J7" s="21" t="s">
-        <v>232</v>
+      <c r="J7" s="20" t="s">
+        <v>231</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>134</v>
@@ -2327,25 +2327,25 @@
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="P7" s="22" t="s">
+      <c r="P7" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="Q7" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="R7" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="S7" s="18" t="s">
+      <c r="S7" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="T7" s="33" t="s">
+      <c r="T7" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="U7" s="18" t="s">
+      <c r="U7" s="17" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2362,19 +2362,19 @@
       <c r="D8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="27"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="62" t="s">
-        <v>282</v>
-      </c>
-      <c r="H8" s="29">
+        <v>280</v>
+      </c>
+      <c r="H8" s="28">
         <v>6</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>114</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>134</v>
@@ -2384,25 +2384,25 @@
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="P8" s="22" t="s">
+      <c r="P8" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q8" s="18" t="s">
+      <c r="Q8" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="R8" s="17" t="s">
+      <c r="R8" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="S8" s="18" t="s">
+      <c r="S8" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="T8" s="33" t="s">
+      <c r="T8" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="U8" s="18" t="s">
+      <c r="U8" s="17" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2419,20 +2419,20 @@
       <c r="D9" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="H9" s="28">
+      <c r="F9" s="26"/>
+      <c r="G9" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="H9" s="27">
         <v>7</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="20" t="s">
         <v>155</v>
       </c>
       <c r="K9" s="5" t="s">
@@ -2443,25 +2443,25 @@
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="P9" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q9" s="18" t="s">
+      <c r="Q9" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="R9" s="17" t="s">
+      <c r="R9" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="T9" s="33" t="s">
+      <c r="T9" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="U9" s="17" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2478,21 +2478,21 @@
       <c r="D10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="31" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <v>8</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J10" s="21" t="s">
-        <v>234</v>
+      <c r="J10" s="20" t="s">
+        <v>233</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>114</v>
@@ -2504,25 +2504,25 @@
       <c r="N10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="P10" s="22" t="s">
+      <c r="O10" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="P10" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="17">
         <v>6</v>
       </c>
-      <c r="R10" s="17" t="s">
+      <c r="R10" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="T10" s="33" t="s">
+      <c r="T10" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="U10" s="18" t="s">
+      <c r="U10" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2539,21 +2539,21 @@
       <c r="D11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="H11" s="28">
+      <c r="F11" s="26"/>
+      <c r="G11" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="H11" s="27">
         <v>9</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>271</v>
+      <c r="J11" s="20" t="s">
+        <v>269</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>134</v>
@@ -2563,25 +2563,25 @@
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="P11" s="22" t="s">
+      <c r="O11" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="P11" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="R11" s="17" t="s">
+      <c r="R11" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="T11" s="33" t="s">
+      <c r="T11" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="U11" s="18" t="s">
+      <c r="U11" s="17" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2595,22 +2595,22 @@
       <c r="C12" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="31" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="28">
         <v>10</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J12" s="39" t="s">
-        <v>270</v>
+      <c r="J12" s="38" t="s">
+        <v>268</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>134</v>
@@ -2620,25 +2620,25 @@
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="P12" s="22" t="s">
+      <c r="O12" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="P12" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q12" s="18" t="s">
+      <c r="Q12" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="R12" s="17" t="s">
+      <c r="R12" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="S12" s="18" t="s">
+      <c r="S12" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="T12" s="33" t="s">
+      <c r="T12" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="U12" s="18" t="s">
+      <c r="U12" s="17" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2652,24 +2652,24 @@
       <c r="C13" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="H13" s="28">
+      <c r="F13" s="26"/>
+      <c r="G13" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="27">
         <v>11</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="39" t="s">
-        <v>272</v>
+      <c r="J13" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>114</v>
@@ -2681,25 +2681,25 @@
       <c r="N13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="P13" s="22" t="s">
+      <c r="P13" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="17">
         <v>6</v>
       </c>
-      <c r="R13" s="17" t="s">
+      <c r="R13" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="T13" s="33" t="s">
+      <c r="T13" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="U13" s="18" t="s">
+      <c r="U13" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2713,26 +2713,26 @@
       <c r="C14" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="H14" s="29">
+      <c r="G14" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="H14" s="28">
         <v>12</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J14" s="21" t="s">
-        <v>225</v>
+      <c r="J14" s="20" t="s">
+        <v>224</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>113</v>
@@ -2742,25 +2742,25 @@
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q14" s="18" t="s">
+      <c r="O14" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q14" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="R14" s="17" t="s">
+      <c r="R14" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="T14" s="33" t="s">
+      <c r="T14" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="U14" s="18" t="s">
+      <c r="U14" s="17" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2774,23 +2774,23 @@
       <c r="C15" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="27" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="27">
         <v>13</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="20" t="s">
         <v>170</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -2803,25 +2803,25 @@
       <c r="N15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="P15" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="17">
         <v>6</v>
       </c>
-      <c r="R15" s="17" t="s">
+      <c r="R15" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="S15" s="18" t="s">
+      <c r="S15" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="T15" s="33" t="s">
+      <c r="T15" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="U15" s="18" t="s">
+      <c r="U15" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2835,23 +2835,23 @@
       <c r="C16" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="27" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="28">
         <v>14</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="20" t="s">
         <v>163</v>
       </c>
       <c r="K16" s="5" t="s">
@@ -2862,25 +2862,25 @@
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="14" t="s">
+      <c r="O16" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="P16" s="22" t="s">
+      <c r="P16" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q16" s="18" t="s">
+      <c r="Q16" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="R16" s="17" t="s">
+      <c r="R16" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="S16" s="18" t="s">
+      <c r="S16" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="T16" s="33" t="s">
+      <c r="T16" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="U16" s="18" t="s">
+      <c r="U16" s="17" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2894,24 +2894,24 @@
       <c r="C17" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="28">
+      <c r="F17" s="26"/>
+      <c r="G17" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="H17" s="27">
         <v>15</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="21" t="s">
-        <v>273</v>
+      <c r="J17" s="20" t="s">
+        <v>271</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>134</v>
@@ -2921,25 +2921,25 @@
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="14" t="s">
+      <c r="O17" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="P17" s="22" t="s">
+      <c r="P17" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q17" s="18" t="s">
+      <c r="Q17" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="R17" s="17" t="s">
+      <c r="R17" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="S17" s="18" t="s">
+      <c r="S17" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="T17" s="33" t="s">
+      <c r="T17" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="U17" s="18" t="s">
+      <c r="U17" s="17" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2953,22 +2953,22 @@
       <c r="C18" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="H18" s="29">
+      <c r="D18" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="H18" s="28">
         <v>16</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J18" s="21" t="s">
-        <v>207</v>
+      <c r="J18" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>114</v>
@@ -2980,25 +2980,25 @@
         <v>11</v>
       </c>
       <c r="N18" s="6"/>
-      <c r="O18" s="14" t="s">
+      <c r="O18" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>6</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="T18" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="P18" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q18" s="18">
-        <v>6</v>
-      </c>
-      <c r="R18" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="S18" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="T18" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="U18" s="18" t="s">
+      <c r="U18" s="17" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3012,24 +3012,24 @@
       <c r="C19" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E19" s="20" t="s">
+      <c r="D19" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="31" t="s">
+      <c r="F19" s="26"/>
+      <c r="G19" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="27">
         <v>17</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="21" t="s">
-        <v>227</v>
+      <c r="J19" s="20" t="s">
+        <v>226</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>114</v>
@@ -3041,25 +3041,25 @@
       <c r="N19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="O19" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="P19" s="22" t="s">
+      <c r="P19" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19" s="17">
         <v>6</v>
       </c>
-      <c r="R19" s="17" t="s">
+      <c r="R19" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="S19" s="18" t="s">
+      <c r="S19" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="T19" s="33" t="s">
+      <c r="T19" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="U19" s="18" t="s">
+      <c r="U19" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3073,24 +3073,24 @@
       <c r="C20" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E20" s="20" t="s">
+      <c r="D20" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="31" t="s">
+      <c r="F20" s="26"/>
+      <c r="G20" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="28">
         <v>18</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="39" t="s">
-        <v>274</v>
+      <c r="J20" s="38" t="s">
+        <v>272</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>114</v>
@@ -3102,25 +3102,25 @@
       <c r="N20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="14" t="s">
+      <c r="O20" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="P20" s="22" t="s">
+      <c r="P20" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q20" s="17">
         <v>6</v>
       </c>
-      <c r="R20" s="17" t="s">
+      <c r="R20" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="S20" s="18" t="s">
+      <c r="S20" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="T20" s="33" t="s">
+      <c r="T20" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="U20" s="18" t="s">
+      <c r="U20" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3134,21 +3134,21 @@
       <c r="C21" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="31" t="s">
+      <c r="D21" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="27">
         <v>19</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="20" t="s">
         <v>181</v>
       </c>
       <c r="K21" s="5" t="s">
@@ -3159,25 +3159,25 @@
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="14" t="s">
+      <c r="O21" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="P21" s="22" t="s">
+      <c r="P21" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q21" s="18" t="s">
+      <c r="Q21" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="R21" s="17" t="s">
+      <c r="R21" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="S21" s="18" t="s">
+      <c r="S21" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="T21" s="33" t="s">
+      <c r="T21" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="U21" s="18" t="s">
+      <c r="U21" s="17" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3191,21 +3191,21 @@
       <c r="C22" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="H22" s="29">
+      <c r="D22" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="H22" s="28">
         <v>20</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="20" t="s">
         <v>183</v>
       </c>
       <c r="K22" s="5" t="s">
@@ -3218,25 +3218,25 @@
       <c r="N22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O22" s="14" t="s">
+      <c r="O22" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="P22" s="22" t="s">
+      <c r="P22" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="Q22" s="17">
         <v>6</v>
       </c>
-      <c r="R22" s="17" t="s">
+      <c r="R22" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="S22" s="18" t="s">
+      <c r="S22" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="T22" s="33" t="s">
+      <c r="T22" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="U22" s="18" t="s">
+      <c r="U22" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3250,24 +3250,24 @@
       <c r="C23" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E23" s="20" t="s">
+      <c r="D23" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="H23" s="28">
+      <c r="F23" s="26"/>
+      <c r="G23" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="H23" s="27">
         <v>21</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J23" s="21" t="s">
-        <v>275</v>
+      <c r="J23" s="20" t="s">
+        <v>273</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>114</v>
@@ -3279,25 +3279,25 @@
       <c r="N23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O23" s="14" t="s">
+      <c r="O23" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="P23" s="22" t="s">
+      <c r="P23" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23" s="17">
         <v>6</v>
       </c>
-      <c r="R23" s="17" t="s">
+      <c r="R23" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="S23" s="18" t="s">
+      <c r="S23" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="T23" s="33" t="s">
+      <c r="T23" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="U23" s="18" t="s">
+      <c r="U23" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3311,22 +3311,22 @@
       <c r="C24" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="H24" s="29">
+      <c r="D24" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="H24" s="28">
         <v>22</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="36" t="s">
-        <v>262</v>
+      <c r="J24" s="35" t="s">
+        <v>260</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>114</v>
@@ -3338,25 +3338,25 @@
         <v>13</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="P24" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q24" s="18">
+      <c r="O24" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="P24" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q24" s="17">
         <v>6</v>
       </c>
-      <c r="R24" s="17" t="s">
+      <c r="R24" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="S24" s="18" t="s">
+      <c r="S24" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="T24" s="33" t="s">
+      <c r="T24" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="U24" s="18" t="s">
+      <c r="U24" s="17" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3370,22 +3370,22 @@
       <c r="C25" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="31" t="s">
+      <c r="D25" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="H25" s="28">
+      <c r="E25" s="19"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="H25" s="27">
         <v>23</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J25" s="21" t="s">
-        <v>191</v>
+      <c r="J25" s="63" t="s">
+        <v>282</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>114</v>
@@ -3397,25 +3397,25 @@
       <c r="N25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O25" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="P25" s="22" t="s">
+      <c r="O25" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="P25" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="Q25" s="17">
         <v>6</v>
       </c>
-      <c r="R25" s="17" t="s">
+      <c r="R25" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="S25" s="18" t="s">
+      <c r="S25" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="T25" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="U25" s="18" t="s">
+      <c r="T25" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="U25" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3429,24 +3429,24 @@
       <c r="C26" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="E26" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="H26" s="29">
+      <c r="H26" s="28">
         <v>24</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="21" t="s">
-        <v>276</v>
+      <c r="J26" s="63" t="s">
+        <v>274</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>114</v>
@@ -3458,25 +3458,25 @@
       <c r="N26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O26" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="P26" s="22" t="s">
+      <c r="O26" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="P26" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="Q26" s="17">
         <v>6</v>
       </c>
-      <c r="R26" s="17" t="s">
+      <c r="R26" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="S26" s="18" t="s">
+      <c r="S26" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="T26" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="U26" s="18" t="s">
+      <c r="T26" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="U26" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3490,22 +3490,22 @@
       <c r="C27" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="H27" s="28">
+      <c r="E27" s="19"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="H27" s="27">
         <v>25</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J27" s="39" t="s">
-        <v>277</v>
+      <c r="J27" s="38" t="s">
+        <v>275</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>134</v>
@@ -3515,25 +3515,25 @@
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="14" t="s">
+      <c r="O27" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="22" t="s">
+      <c r="P27" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q27" s="18" t="s">
+      <c r="Q27" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="R27" s="17" t="s">
+      <c r="R27" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="S27" s="18" t="s">
+      <c r="S27" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="T27" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="U27" s="18" t="s">
+      <c r="T27" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="U27" s="17" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3547,22 +3547,22 @@
       <c r="C28" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="31" t="s">
+      <c r="E28" s="19"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="H28" s="28">
+        <v>26</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" s="20" t="s">
         <v>195</v>
-      </c>
-      <c r="H28" s="29">
-        <v>26</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>196</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>134</v>
@@ -3572,25 +3572,25 @@
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="14" t="s">
+      <c r="O28" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="P28" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q28" s="18" t="s">
+      <c r="P28" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q28" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="R28" s="17" t="s">
+      <c r="R28" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="S28" s="18" t="s">
+      <c r="S28" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="T28" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="U28" s="18" t="s">
+      <c r="T28" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="U28" s="17" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3604,24 +3604,24 @@
       <c r="C29" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="H29" s="28">
+      <c r="F29" s="26"/>
+      <c r="G29" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="H29" s="27">
         <v>27</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J29" s="39" t="s">
-        <v>279</v>
+      <c r="J29" s="63" t="s">
+        <v>277</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>114</v>
@@ -3633,25 +3633,25 @@
       <c r="N29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O29" s="14" t="s">
+      <c r="O29" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="P29" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>6</v>
+      </c>
+      <c r="R29" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="S29" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="T29" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="P29" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q29" s="18">
-        <v>6</v>
-      </c>
-      <c r="R29" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="S29" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="T29" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="U29" s="18" t="s">
+      <c r="U29" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3665,22 +3665,22 @@
       <c r="C30" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="H30" s="29">
+      <c r="E30" s="19"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="28">
         <v>28</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J30" s="21" t="s">
-        <v>200</v>
+      <c r="J30" s="63" t="s">
+        <v>199</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>114</v>
@@ -3692,25 +3692,25 @@
         <v>12</v>
       </c>
       <c r="N30" s="6"/>
-      <c r="O30" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="P30" s="22" t="s">
+      <c r="O30" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="P30" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="Q30" s="17">
         <v>6</v>
       </c>
-      <c r="R30" s="17" t="s">
+      <c r="R30" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="S30" s="18" t="s">
+      <c r="S30" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="T30" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="U30" s="18" t="s">
+      <c r="T30" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="U30" s="17" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3724,22 +3724,22 @@
       <c r="C31" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="31" t="s">
+      <c r="E31" s="19"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="H31" s="27">
+        <v>29</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J31" s="20" t="s">
         <v>202</v>
-      </c>
-      <c r="H31" s="28">
-        <v>29</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>203</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>114</v>
@@ -3751,25 +3751,25 @@
       <c r="N31" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O31" s="14" t="s">
+      <c r="O31" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="P31" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q31" s="17">
+        <v>6</v>
+      </c>
+      <c r="R31" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="S31" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="T31" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="P31" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q31" s="18">
-        <v>6</v>
-      </c>
-      <c r="R31" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="S31" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="T31" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="U31" s="18" t="s">
+      <c r="U31" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3783,24 +3783,24 @@
       <c r="C32" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="H32" s="29">
+      <c r="F32" s="26"/>
+      <c r="G32" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="H32" s="28">
         <v>30</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J32" s="21" t="s">
-        <v>280</v>
+      <c r="J32" s="20" t="s">
+        <v>278</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>114</v>
@@ -3812,25 +3812,25 @@
       <c r="N32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="14" t="s">
+      <c r="O32" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="P32" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q32" s="17">
+        <v>6</v>
+      </c>
+      <c r="R32" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="S32" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="T32" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="P32" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q32" s="18">
-        <v>6</v>
-      </c>
-      <c r="R32" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="S32" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="T32" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="U32" s="18" t="s">
+      <c r="U32" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3844,22 +3844,22 @@
       <c r="C33" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="H33" s="28">
+      <c r="E33" s="19"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="H33" s="27">
         <v>31</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J33" s="21" t="s">
-        <v>255</v>
+      <c r="J33" s="63" t="s">
+        <v>283</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>114</v>
@@ -3871,25 +3871,25 @@
       <c r="N33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O33" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="P33" s="22" t="s">
+      <c r="O33" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="P33" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q33" s="18">
+      <c r="Q33" s="17">
         <v>6</v>
       </c>
-      <c r="R33" s="17" t="s">
+      <c r="R33" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="S33" s="18" t="s">
+      <c r="S33" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="T33" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="U33" s="18" t="s">
+      <c r="T33" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="U33" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3903,22 +3903,22 @@
       <c r="C34" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="H34" s="29">
+      <c r="E34" s="19"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="H34" s="28">
         <v>32</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J34" s="21" t="s">
-        <v>214</v>
+      <c r="J34" s="20" t="s">
+        <v>213</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>114</v>
@@ -3930,25 +3930,25 @@
       <c r="N34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="P34" s="22" t="s">
+      <c r="O34" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="P34" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q34" s="18">
+      <c r="Q34" s="17">
         <v>6</v>
       </c>
-      <c r="R34" s="17" t="s">
+      <c r="R34" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="S34" s="18" t="s">
+      <c r="S34" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="T34" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="U34" s="18" t="s">
+      <c r="T34" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="U34" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3962,20 +3962,20 @@
       <c r="C35" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="H35" s="28">
+      <c r="D35" s="22"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H35" s="27">
         <v>33</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J35" s="21" t="s">
-        <v>281</v>
+      <c r="J35" s="20" t="s">
+        <v>279</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>114</v>
@@ -3985,17 +3985,17 @@
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="P35" s="22" t="s">
+      <c r="O35" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="P35" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="18"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="17"/>
     </row>
     <row r="36" spans="1:21" ht="15" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -4007,20 +4007,20 @@
       <c r="C36" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="31" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" s="28">
+        <v>34</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" s="20" t="s">
         <v>247</v>
-      </c>
-      <c r="H36" s="29">
-        <v>34</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>248</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>114</v>
@@ -4032,25 +4032,25 @@
       <c r="N36" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O36" s="14" t="s">
+      <c r="O36" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="P36" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q36" s="17">
+        <v>6</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="S36" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="T36" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="P36" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q36" s="18">
-        <v>6</v>
-      </c>
-      <c r="R36" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="S36" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="T36" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="U36" s="18" t="s">
+      <c r="U36" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4064,19 +4064,19 @@
       <c r="C37" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="H37" s="28">
+      <c r="D37" s="22"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="H37" s="27">
         <v>35</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J37" s="21"/>
+      <c r="J37" s="20"/>
       <c r="K37" s="5" t="s">
         <v>114</v>
       </c>
@@ -4087,25 +4087,25 @@
       <c r="N37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O37" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="P37" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q37" s="18">
+      <c r="O37" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="P37" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q37" s="17">
         <v>6</v>
       </c>
-      <c r="R37" s="17" t="s">
+      <c r="R37" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="S37" s="18" t="s">
+      <c r="S37" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="T37" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="U37" s="18" t="s">
+      <c r="T37" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="U37" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
       <c r="C78" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="25" t="s">
+      <c r="E78" s="24" t="s">
         <v>36</v>
       </c>
       <c r="J78" s="9" t="s">
@@ -4873,12 +4873,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -4893,6 +4887,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A37">

--- a/fuentes/contenidos/grado06/guion07/Escaleta_MA_06_07_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion07/Escaleta_MA_06_07_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="560" yWindow="460" windowWidth="25040" windowHeight="14100"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="25040" windowHeight="14120"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -957,9 +957,6 @@
     <t>Actividad para relacionar números decimales con la fracción decimal</t>
   </si>
   <si>
-    <t>Convierte un número decimal en fracción</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Actividad para </t>
     </r>
@@ -1100,14 +1097,24 @@
   <si>
     <t>Actividad que muestra una aplicación de los números decimales en un contexto cotidiano</t>
   </si>
+  <si>
+    <t>Clasifica fracciones decimales</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1420,111 +1427,120 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1532,7 +1548,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1541,80 +1557,74 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1928,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F18" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1993,25 +2003,25 @@
         <v>6</v>
       </c>
       <c r="N1" s="49"/>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="61" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2034,13 +2044,13 @@
       <c r="N2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="40"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="61"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -2068,7 +2078,7 @@
       <c r="I3" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="39" t="s">
         <v>229</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -2185,8 +2195,8 @@
       <c r="F5" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>266</v>
+      <c r="G5" s="64" t="s">
+        <v>283</v>
       </c>
       <c r="H5" s="27">
         <v>3</v>
@@ -2258,7 +2268,7 @@
         <v>114</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>134</v>
@@ -2364,8 +2374,8 @@
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="62" t="s">
-        <v>280</v>
+      <c r="G8" s="40" t="s">
+        <v>279</v>
       </c>
       <c r="H8" s="28">
         <v>6</v>
@@ -2373,8 +2383,8 @@
       <c r="I8" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="63" t="s">
-        <v>281</v>
+      <c r="J8" s="41" t="s">
+        <v>280</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>134</v>
@@ -2553,7 +2563,7 @@
         <v>114</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>134</v>
@@ -2610,7 +2620,7 @@
         <v>134</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>134</v>
@@ -2669,7 +2679,7 @@
         <v>114</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>114</v>
@@ -2911,7 +2921,7 @@
         <v>114</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>134</v>
@@ -3090,7 +3100,7 @@
         <v>114</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>114</v>
@@ -3267,7 +3277,7 @@
         <v>114</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>114</v>
@@ -3375,7 +3385,7 @@
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="26"/>
-      <c r="G25" s="62" t="s">
+      <c r="G25" s="40" t="s">
         <v>241</v>
       </c>
       <c r="H25" s="27">
@@ -3384,8 +3394,8 @@
       <c r="I25" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J25" s="63" t="s">
-        <v>282</v>
+      <c r="J25" s="41" t="s">
+        <v>281</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>114</v>
@@ -3436,7 +3446,7 @@
         <v>123</v>
       </c>
       <c r="F26" s="26"/>
-      <c r="G26" s="62" t="s">
+      <c r="G26" s="40" t="s">
         <v>243</v>
       </c>
       <c r="H26" s="28">
@@ -3445,8 +3455,8 @@
       <c r="I26" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="63" t="s">
-        <v>274</v>
+      <c r="J26" s="41" t="s">
+        <v>273</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>114</v>
@@ -3505,7 +3515,7 @@
         <v>114</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>134</v>
@@ -3611,8 +3621,8 @@
         <v>123</v>
       </c>
       <c r="F29" s="26"/>
-      <c r="G29" s="62" t="s">
-        <v>276</v>
+      <c r="G29" s="40" t="s">
+        <v>275</v>
       </c>
       <c r="H29" s="27">
         <v>27</v>
@@ -3620,8 +3630,8 @@
       <c r="I29" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J29" s="63" t="s">
-        <v>277</v>
+      <c r="J29" s="41" t="s">
+        <v>276</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>114</v>
@@ -3670,7 +3680,7 @@
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="26"/>
-      <c r="G30" s="62" t="s">
+      <c r="G30" s="40" t="s">
         <v>198</v>
       </c>
       <c r="H30" s="28">
@@ -3679,7 +3689,7 @@
       <c r="I30" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J30" s="63" t="s">
+      <c r="J30" s="41" t="s">
         <v>199</v>
       </c>
       <c r="K30" s="5" t="s">
@@ -3800,7 +3810,7 @@
         <v>114</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>114</v>
@@ -3849,7 +3859,7 @@
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="26"/>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="40" t="s">
         <v>257</v>
       </c>
       <c r="H33" s="27">
@@ -3858,8 +3868,8 @@
       <c r="I33" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J33" s="63" t="s">
-        <v>283</v>
+      <c r="J33" s="41" t="s">
+        <v>282</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>114</v>
@@ -3975,7 +3985,7 @@
         <v>114</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>114</v>
@@ -4873,6 +4883,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -4887,12 +4903,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A37">

--- a/fuentes/contenidos/grado06/guion07/Escaleta_MA_06_07_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion07/Escaleta_MA_06_07_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="25040" windowHeight="14120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -663,9 +663,6 @@
   </si>
   <si>
     <t>Recurso M102AB-01</t>
-  </si>
-  <si>
-    <t>Actividad que permite reconocer en que casos se puede aplicar un cálculo exacto o una estimación</t>
   </si>
   <si>
     <t>Mapa Conceptual</t>
@@ -1100,14 +1097,46 @@
   <si>
     <t>Clasifica fracciones decimales</t>
   </si>
+  <si>
+    <r>
+      <t>Actividad que permite reconocer en qu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>é</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> casos se puede aplicar un cálculo exacto o una estimación</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1427,111 +1456,120 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1539,7 +1577,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1548,83 +1586,77 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1938,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="F24" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1963,94 +1995,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="F1" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="G1" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="57" t="s">
+      <c r="I1" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="I1" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L1" s="45" t="s">
+      <c r="K1" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="L1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="53"/>
+      <c r="O1" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="Q1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="63" t="s">
+      <c r="R1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="U1" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="45"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="61"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="44"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -2070,7 +2102,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H3" s="27">
         <v>1</v>
@@ -2079,7 +2111,7 @@
         <v>134</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>114</v>
@@ -2133,7 +2165,7 @@
         <v>140</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H4" s="28">
         <v>2</v>
@@ -2155,7 +2187,7 @@
         <v>47</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P4" s="21" t="s">
         <v>134</v>
@@ -2195,8 +2227,8 @@
       <c r="F5" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="64" t="s">
-        <v>283</v>
+      <c r="G5" s="42" t="s">
+        <v>282</v>
       </c>
       <c r="H5" s="27">
         <v>3</v>
@@ -2205,7 +2237,7 @@
         <v>114</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>114</v>
@@ -2218,7 +2250,7 @@
         <v>21</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P5" s="21" t="s">
         <v>134</v>
@@ -2253,10 +2285,10 @@
         <v>116</v>
       </c>
       <c r="E6" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>262</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>263</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>188</v>
@@ -2268,7 +2300,7 @@
         <v>114</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>134</v>
@@ -2327,7 +2359,7 @@
         <v>134</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>134</v>
@@ -2375,7 +2407,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="26"/>
       <c r="G8" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H8" s="28">
         <v>6</v>
@@ -2384,7 +2416,7 @@
         <v>114</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>134</v>
@@ -2434,7 +2466,7 @@
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H9" s="27">
         <v>7</v>
@@ -2502,7 +2534,7 @@
         <v>114</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>114</v>
@@ -2515,7 +2547,7 @@
         <v>42</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P10" s="21" t="s">
         <v>134</v>
@@ -2554,7 +2586,7 @@
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H11" s="27">
         <v>9</v>
@@ -2563,7 +2595,7 @@
         <v>114</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>134</v>
@@ -2574,7 +2606,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P11" s="21" t="s">
         <v>134</v>
@@ -2620,7 +2652,7 @@
         <v>134</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>134</v>
@@ -2631,7 +2663,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P12" s="21" t="s">
         <v>134</v>
@@ -2670,7 +2702,7 @@
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H13" s="27">
         <v>11</v>
@@ -2679,7 +2711,7 @@
         <v>114</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>114</v>
@@ -2733,7 +2765,7 @@
         <v>127</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H14" s="28">
         <v>12</v>
@@ -2742,7 +2774,7 @@
         <v>114</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>113</v>
@@ -2753,7 +2785,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P14" s="21" t="s">
         <v>114</v>
@@ -2912,7 +2944,7 @@
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H17" s="27">
         <v>15</v>
@@ -2921,7 +2953,7 @@
         <v>114</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>134</v>
@@ -2964,12 +2996,12 @@
         <v>150</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="26"/>
       <c r="G18" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H18" s="28">
         <v>16</v>
@@ -3023,7 +3055,7 @@
         <v>150</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>129</v>
@@ -3039,7 +3071,7 @@
         <v>114</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>114</v>
@@ -3084,7 +3116,7 @@
         <v>150</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>130</v>
@@ -3100,7 +3132,7 @@
         <v>114</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>114</v>
@@ -3145,7 +3177,7 @@
         <v>150</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="26"/>
@@ -3202,12 +3234,12 @@
         <v>150</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="26"/>
       <c r="G22" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H22" s="28">
         <v>20</v>
@@ -3261,14 +3293,14 @@
         <v>150</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>123</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H23" s="27">
         <v>21</v>
@@ -3277,7 +3309,7 @@
         <v>114</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>114</v>
@@ -3322,12 +3354,12 @@
         <v>150</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="26"/>
       <c r="G24" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H24" s="28">
         <v>22</v>
@@ -3336,7 +3368,7 @@
         <v>134</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>114</v>
@@ -3349,7 +3381,7 @@
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P24" s="21" t="s">
         <v>114</v>
@@ -3381,12 +3413,12 @@
         <v>150</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="26"/>
       <c r="G25" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H25" s="27">
         <v>23</v>
@@ -3395,7 +3427,7 @@
         <v>114</v>
       </c>
       <c r="J25" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>114</v>
@@ -3408,7 +3440,7 @@
         <v>52</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P25" s="21" t="s">
         <v>134</v>
@@ -3440,14 +3472,14 @@
         <v>150</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>123</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H26" s="28">
         <v>24</v>
@@ -3456,7 +3488,7 @@
         <v>114</v>
       </c>
       <c r="J26" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>114</v>
@@ -3469,7 +3501,7 @@
         <v>31</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P26" s="21" t="s">
         <v>134</v>
@@ -3515,7 +3547,7 @@
         <v>114</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>134</v>
@@ -3622,7 +3654,7 @@
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H29" s="27">
         <v>27</v>
@@ -3631,7 +3663,7 @@
         <v>114</v>
       </c>
       <c r="J29" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>114</v>
@@ -3810,7 +3842,7 @@
         <v>114</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>114</v>
@@ -3860,7 +3892,7 @@
       <c r="E33" s="19"/>
       <c r="F33" s="26"/>
       <c r="G33" s="40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H33" s="27">
         <v>31</v>
@@ -3869,7 +3901,7 @@
         <v>114</v>
       </c>
       <c r="J33" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>114</v>
@@ -3882,7 +3914,7 @@
         <v>33</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P33" s="21" t="s">
         <v>134</v>
@@ -3919,7 +3951,7 @@
       <c r="E34" s="19"/>
       <c r="F34" s="26"/>
       <c r="G34" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H34" s="28">
         <v>32</v>
@@ -3927,8 +3959,8 @@
       <c r="I34" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J34" s="20" t="s">
-        <v>213</v>
+      <c r="J34" s="65" t="s">
+        <v>283</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>114</v>
@@ -3941,7 +3973,7 @@
         <v>33</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P34" s="21" t="s">
         <v>134</v>
@@ -3956,7 +3988,7 @@
         <v>143</v>
       </c>
       <c r="T34" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U34" s="17" t="s">
         <v>145</v>
@@ -3976,7 +4008,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="26"/>
       <c r="G35" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H35" s="27">
         <v>33</v>
@@ -3985,7 +4017,7 @@
         <v>114</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>114</v>
@@ -3996,7 +4028,7 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P35" s="21" t="s">
         <v>134</v>
@@ -4021,7 +4053,7 @@
       <c r="E36" s="19"/>
       <c r="F36" s="26"/>
       <c r="G36" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H36" s="28">
         <v>34</v>
@@ -4030,7 +4062,7 @@
         <v>114</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>114</v>
@@ -4043,7 +4075,7 @@
         <v>52</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P36" s="21" t="s">
         <v>134</v>
@@ -4058,7 +4090,7 @@
         <v>143</v>
       </c>
       <c r="T36" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U36" s="17" t="s">
         <v>145</v>
@@ -4078,7 +4110,7 @@
       <c r="E37" s="19"/>
       <c r="F37" s="26"/>
       <c r="G37" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H37" s="27">
         <v>35</v>
@@ -4098,7 +4130,7 @@
         <v>32</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P37" s="21" t="s">
         <v>114</v>
@@ -4113,7 +4145,7 @@
         <v>143</v>
       </c>
       <c r="T37" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U37" s="17" t="s">
         <v>145</v>
@@ -4883,12 +4915,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -4903,6 +4929,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A37">
